--- a/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,130 +441,200 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>total_distance_full_all</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>total_metersperminute_full_all</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>running_distance_full_all</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>hsr_distance_full_all</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hsr_count_full_all</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sprint_distance_full_all</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sprint_count_full_all</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>hi_distance_full_all</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>hi_count_full_all</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>medaccel_count_full_all</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>highaccel_count_full_all</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>meddecel_count_full_all</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>highdecel_count_full_all</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>psv99</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>total_distance_full_tip</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>total_metersperminute_full_tip</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>running_distance_full_tip</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>hsr_distance_full_tip</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>hsr_count_full_tip</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sprint_distance_full_tip</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sprint_count_full_tip</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>hi_distance_full_tip</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>hi_count_full_tip</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>medaccel_count_full_tip</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highaccel_count_full_tip</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>meddecel_count_full_tip</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highdecel_count_full_tip</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>total_distance_full_otip</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>total_metersperminute_full_otip</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>running_distance_full_otip</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>hsr_distance_full_otip</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>hsr_count_full_otip</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>sprint_distance_full_otip</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>sprint_count_full_otip</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>hi_distance_full_otip</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>hi_count_full_otip</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>medaccel_count_full_otip</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>highaccel_count_full_otip</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>meddecel_count_full_otip</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>highdecel_count_full_otip</t>
         </is>
@@ -577,81 +647,123 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>103077.4021386138</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1566.730243151901</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14607.25607469101</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5666.752883553461</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544.0137564681897</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1679.602702993036</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99.11577513353407</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7346.355586546497</v>
+      </c>
+      <c r="J2" t="n">
+        <v>643.1295316017238</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1120.653032847469</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.17942097559248</v>
+      </c>
+      <c r="M2" t="n">
+        <v>901.490669478657</v>
+      </c>
+      <c r="N2" t="n">
+        <v>167.6313998707799</v>
+      </c>
+      <c r="O2" t="n">
+        <v>382.2895863511616</v>
+      </c>
+      <c r="P2" t="n">
         <v>36984.78942497371</v>
       </c>
-      <c r="C2" t="n">
+      <c r="Q2" t="n">
         <v>1863.713111023834</v>
       </c>
-      <c r="D2" t="n">
+      <c r="R2" t="n">
         <v>5864.194604207496</v>
       </c>
-      <c r="E2" t="n">
+      <c r="S2" t="n">
         <v>2291.779877781744</v>
       </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
         <v>221.0521250706038</v>
       </c>
-      <c r="G2" t="n">
+      <c r="U2" t="n">
         <v>799.587147699983</v>
       </c>
-      <c r="H2" t="n">
+      <c r="V2" t="n">
         <v>40.3001736459458</v>
       </c>
-      <c r="I2" t="n">
+      <c r="W2" t="n">
         <v>3091.367025481727</v>
       </c>
-      <c r="J2" t="n">
+      <c r="X2" t="n">
         <v>261.3522987165496</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Y2" t="n">
         <v>393.013095416546</v>
       </c>
-      <c r="L2" t="n">
+      <c r="Z2" t="n">
         <v>21.91741730592575</v>
       </c>
-      <c r="M2" t="n">
+      <c r="AA2" t="n">
         <v>278.0250160352341</v>
       </c>
-      <c r="N2" t="n">
+      <c r="AB2" t="n">
         <v>41.65753511656836</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AC2" t="n">
         <v>35318.30623147275</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AD2" t="n">
         <v>2055.524019744857</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AE2" t="n">
         <v>7035.737028209332</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AF2" t="n">
         <v>2898.498343348916</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AG2" t="n">
         <v>262.4617143176719</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AH2" t="n">
         <v>757.7201179376283</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AI2" t="n">
         <v>39.44895443994156</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AJ2" t="n">
         <v>3656.218461286545</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AK2" t="n">
         <v>301.9106687576135</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AL2" t="n">
         <v>416.4765382603131</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AM2" t="n">
         <v>21.35569289610375</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AN2" t="n">
         <v>294.2538785565282</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AO2" t="n">
         <v>55.32037164341867</v>
       </c>
     </row>
@@ -662,81 +774,123 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>101390.5013798346</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1490.923326212898</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13948.80955046771</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5394.388581301693</v>
+      </c>
+      <c r="F3" t="n">
+        <v>523.0272201394287</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1679.624661872726</v>
+      </c>
+      <c r="H3" t="n">
+        <v>95.53353564022763</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7074.013243174419</v>
+      </c>
+      <c r="J3" t="n">
+        <v>618.5607557796562</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1101.426960935659</v>
+      </c>
+      <c r="L3" t="n">
+        <v>76.61872944817318</v>
+      </c>
+      <c r="M3" t="n">
+        <v>906.7273468414577</v>
+      </c>
+      <c r="N3" t="n">
+        <v>162.8207411798939</v>
+      </c>
+      <c r="O3" t="n">
+        <v>363.0559861045939</v>
+      </c>
+      <c r="P3" t="n">
         <v>35139.82353109887</v>
       </c>
-      <c r="C3" t="n">
+      <c r="Q3" t="n">
         <v>1690.440770990897</v>
       </c>
-      <c r="D3" t="n">
+      <c r="R3" t="n">
         <v>5511.485981514406</v>
       </c>
-      <c r="E3" t="n">
+      <c r="S3" t="n">
         <v>2238.681337601321</v>
       </c>
-      <c r="F3" t="n">
+      <c r="T3" t="n">
         <v>214.2489973357439</v>
       </c>
-      <c r="G3" t="n">
+      <c r="U3" t="n">
         <v>840.5826305662382</v>
       </c>
-      <c r="H3" t="n">
+      <c r="V3" t="n">
         <v>40.02188985175228</v>
       </c>
-      <c r="I3" t="n">
+      <c r="W3" t="n">
         <v>3079.263968167559</v>
       </c>
-      <c r="J3" t="n">
+      <c r="X3" t="n">
         <v>254.2708871874962</v>
       </c>
-      <c r="K3" t="n">
+      <c r="Y3" t="n">
         <v>362.3264014831789</v>
       </c>
-      <c r="L3" t="n">
+      <c r="Z3" t="n">
         <v>24.12555135755219</v>
       </c>
-      <c r="M3" t="n">
+      <c r="AA3" t="n">
         <v>260.5781337760715</v>
       </c>
-      <c r="N3" t="n">
+      <c r="AB3" t="n">
         <v>41.33524022861447</v>
       </c>
-      <c r="O3" t="n">
+      <c r="AC3" t="n">
         <v>37278.73176481328</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AD3" t="n">
         <v>1741.475776568035</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AE3" t="n">
         <v>6918.282226475702</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AF3" t="n">
         <v>2708.275818993478</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AG3" t="n">
         <v>253.4574588476533</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AH3" t="n">
         <v>697.6124669116859</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AI3" t="n">
         <v>37.08361998645271</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AJ3" t="n">
         <v>3405.888285905164</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AK3" t="n">
         <v>290.541078834106</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AL3" t="n">
         <v>444.7572931794446</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AM3" t="n">
         <v>23.50821093050978</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AN3" t="n">
         <v>328.8671087604378</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AO3" t="n">
         <v>56.52843416597797</v>
       </c>
     </row>
@@ -747,81 +901,123 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>101148.845573716</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1534.085170031487</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13582.81249628817</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5014.373907385119</v>
+      </c>
+      <c r="F4" t="n">
+        <v>488.4334590896526</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1575.940730597557</v>
+      </c>
+      <c r="H4" t="n">
+        <v>90.81476829194003</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6590.314637982676</v>
+      </c>
+      <c r="J4" t="n">
+        <v>579.2482273815925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1062.252405873364</v>
+      </c>
+      <c r="L4" t="n">
+        <v>60.44618306696288</v>
+      </c>
+      <c r="M4" t="n">
+        <v>859.8858799349756</v>
+      </c>
+      <c r="N4" t="n">
+        <v>158.0529298443516</v>
+      </c>
+      <c r="O4" t="n">
+        <v>376.4027078892219</v>
+      </c>
+      <c r="P4" t="n">
         <v>35670.40120009604</v>
       </c>
-      <c r="C4" t="n">
+      <c r="Q4" t="n">
         <v>1748.937103663767</v>
       </c>
-      <c r="D4" t="n">
+      <c r="R4" t="n">
         <v>5243.529566463166</v>
       </c>
-      <c r="E4" t="n">
+      <c r="S4" t="n">
         <v>2044.955379152391</v>
       </c>
-      <c r="F4" t="n">
+      <c r="T4" t="n">
         <v>196.9924026273008</v>
       </c>
-      <c r="G4" t="n">
+      <c r="U4" t="n">
         <v>772.8018779050992</v>
       </c>
-      <c r="H4" t="n">
+      <c r="V4" t="n">
         <v>38.19431627864717</v>
       </c>
-      <c r="I4" t="n">
+      <c r="W4" t="n">
         <v>2817.75725705749</v>
       </c>
-      <c r="J4" t="n">
+      <c r="X4" t="n">
         <v>235.186718905948</v>
       </c>
-      <c r="K4" t="n">
+      <c r="Y4" t="n">
         <v>369.251856386387</v>
       </c>
-      <c r="L4" t="n">
+      <c r="Z4" t="n">
         <v>20.56326026971866</v>
       </c>
-      <c r="M4" t="n">
+      <c r="AA4" t="n">
         <v>260.2173766191106</v>
       </c>
-      <c r="N4" t="n">
+      <c r="AB4" t="n">
         <v>40.28671915993478</v>
       </c>
-      <c r="O4" t="n">
+      <c r="AC4" t="n">
         <v>34967.84365323477</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AD4" t="n">
         <v>1955.997191947915</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AE4" t="n">
         <v>6735.950429127836</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AF4" t="n">
         <v>2512.264471963871</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AG4" t="n">
         <v>227.7493592698368</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AH4" t="n">
         <v>654.4873509197188</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AI4" t="n">
         <v>34.32881547899326</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AJ4" t="n">
         <v>3166.75182288359</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AK4" t="n">
         <v>262.0781747488301</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AL4" t="n">
         <v>396.2543559713862</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AM4" t="n">
         <v>19.01366400801037</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AN4" t="n">
         <v>284.1242905108756</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AO4" t="n">
         <v>47.46093844235369</v>
       </c>
     </row>
@@ -832,81 +1028,123 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>101678.063784166</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1460.250717858118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14191.33735434424</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5210.562440883345</v>
+      </c>
+      <c r="F5" t="n">
+        <v>499.8176679374651</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1536.076803401259</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91.70216077884228</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6746.639244284604</v>
+      </c>
+      <c r="J5" t="n">
+        <v>591.5198287163073</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1043.358492580089</v>
+      </c>
+      <c r="L5" t="n">
+        <v>62.15071887194388</v>
+      </c>
+      <c r="M5" t="n">
+        <v>852.2641453443797</v>
+      </c>
+      <c r="N5" t="n">
+        <v>153.4798917708448</v>
+      </c>
+      <c r="O5" t="n">
+        <v>362.0987528956378</v>
+      </c>
+      <c r="P5" t="n">
         <v>32647.87026909309</v>
       </c>
-      <c r="C5" t="n">
+      <c r="Q5" t="n">
         <v>1763.767837903084</v>
       </c>
-      <c r="D5" t="n">
+      <c r="R5" t="n">
         <v>5403.07065083388</v>
       </c>
-      <c r="E5" t="n">
+      <c r="S5" t="n">
         <v>2028.882743576388</v>
       </c>
-      <c r="F5" t="n">
+      <c r="T5" t="n">
         <v>188.9873199756406</v>
       </c>
-      <c r="G5" t="n">
+      <c r="U5" t="n">
         <v>713.0034047802379</v>
       </c>
-      <c r="H5" t="n">
+      <c r="V5" t="n">
         <v>36.12928511257346</v>
       </c>
-      <c r="I5" t="n">
+      <c r="W5" t="n">
         <v>2741.886148356625</v>
       </c>
-      <c r="J5" t="n">
+      <c r="X5" t="n">
         <v>225.1166050882141</v>
       </c>
-      <c r="K5" t="n">
+      <c r="Y5" t="n">
         <v>325.3385808165229</v>
       </c>
-      <c r="L5" t="n">
+      <c r="Z5" t="n">
         <v>18.66445279530906</v>
       </c>
-      <c r="M5" t="n">
+      <c r="AA5" t="n">
         <v>233.8347715843163</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AB5" t="n">
         <v>37.69567533837247</v>
       </c>
-      <c r="O5" t="n">
+      <c r="AC5" t="n">
         <v>36186.72569018874</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AD5" t="n">
         <v>1884.033887926297</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AE5" t="n">
         <v>7116.883714345494</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AF5" t="n">
         <v>2726.646221664719</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AG5" t="n">
         <v>253.1635916720752</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AH5" t="n">
         <v>713.6647968605633</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AI5" t="n">
         <v>37.89107176172122</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AJ5" t="n">
         <v>3440.311018525283</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AK5" t="n">
         <v>291.0546634337964</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AL5" t="n">
         <v>410.6698631995355</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AM5" t="n">
         <v>20.4323344750366</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AN5" t="n">
         <v>300.0259382531694</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AO5" t="n">
         <v>50.74899268971261</v>
       </c>
     </row>
@@ -917,81 +1155,123 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>102447.2515008367</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1550.156248942513</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14373.19382097867</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5541.220419563276</v>
+      </c>
+      <c r="F6" t="n">
+        <v>526.30712531145</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1614.208714347974</v>
+      </c>
+      <c r="H6" t="n">
+        <v>96.2778596841497</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7155.42913391125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>622.5849849955997</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1088.063939143678</v>
+      </c>
+      <c r="L6" t="n">
+        <v>66.66561085233127</v>
+      </c>
+      <c r="M6" t="n">
+        <v>869.0849576575059</v>
+      </c>
+      <c r="N6" t="n">
+        <v>159.5491486031145</v>
+      </c>
+      <c r="O6" t="n">
+        <v>376.1916550107511</v>
+      </c>
+      <c r="P6" t="n">
         <v>36974.38135238089</v>
       </c>
-      <c r="C6" t="n">
+      <c r="Q6" t="n">
         <v>1971.081921566278</v>
       </c>
-      <c r="D6" t="n">
+      <c r="R6" t="n">
         <v>6237.721800697452</v>
       </c>
-      <c r="E6" t="n">
+      <c r="S6" t="n">
         <v>2404.758738272372</v>
       </c>
-      <c r="F6" t="n">
+      <c r="T6" t="n">
         <v>225.6470418362181</v>
       </c>
-      <c r="G6" t="n">
+      <c r="U6" t="n">
         <v>783.1023279153544</v>
       </c>
-      <c r="H6" t="n">
+      <c r="V6" t="n">
         <v>42.10090083547875</v>
       </c>
-      <c r="I6" t="n">
+      <c r="W6" t="n">
         <v>3187.861066187726</v>
       </c>
-      <c r="J6" t="n">
+      <c r="X6" t="n">
         <v>267.7479426716968</v>
       </c>
-      <c r="K6" t="n">
+      <c r="Y6" t="n">
         <v>387.5376182218013</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Z6" t="n">
         <v>22.63332159269888</v>
       </c>
-      <c r="M6" t="n">
+      <c r="AA6" t="n">
         <v>272.0246582558757</v>
       </c>
-      <c r="N6" t="n">
+      <c r="AB6" t="n">
         <v>40.65699418550835</v>
       </c>
-      <c r="O6" t="n">
+      <c r="AC6" t="n">
         <v>34037.08639854103</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AD6" t="n">
         <v>1969.814407356367</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AE6" t="n">
         <v>6461.814865793849</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AF6" t="n">
         <v>2682.693670934113</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AG6" t="n">
         <v>245.1037549219388</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AH6" t="n">
         <v>715.0841630708672</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AI6" t="n">
         <v>37.05953411533455</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AJ6" t="n">
         <v>3397.777834004981</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AK6" t="n">
         <v>282.1632890372734</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AL6" t="n">
         <v>398.4998238482113</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AM6" t="n">
         <v>20.63306160534848</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AN6" t="n">
         <v>271.3609392051098</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AO6" t="n">
         <v>48.55508678535421</v>
       </c>
     </row>
@@ -1002,81 +1282,123 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>104876.6649231579</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1565.647123775492</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14919.97663187125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5498.340413700205</v>
+      </c>
+      <c r="F7" t="n">
+        <v>525.4469203059548</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1575.709821906687</v>
+      </c>
+      <c r="H7" t="n">
+        <v>94.60570787661847</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7074.050235606893</v>
+      </c>
+      <c r="J7" t="n">
+        <v>620.0526281825734</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1103.938737366569</v>
+      </c>
+      <c r="L7" t="n">
+        <v>60.62340270377484</v>
+      </c>
+      <c r="M7" t="n">
+        <v>899.1577418850176</v>
+      </c>
+      <c r="N7" t="n">
+        <v>153.2322224035787</v>
+      </c>
+      <c r="O7" t="n">
+        <v>370.0525476543855</v>
+      </c>
+      <c r="P7" t="n">
         <v>34048.34512309541</v>
       </c>
-      <c r="C7" t="n">
+      <c r="Q7" t="n">
         <v>1809.977375102943</v>
       </c>
-      <c r="D7" t="n">
+      <c r="R7" t="n">
         <v>5533.32353787244</v>
       </c>
-      <c r="E7" t="n">
+      <c r="S7" t="n">
         <v>2159.542732544159</v>
       </c>
-      <c r="F7" t="n">
+      <c r="T7" t="n">
         <v>205.3246991204325</v>
       </c>
-      <c r="G7" t="n">
+      <c r="U7" t="n">
         <v>724.6160456364601</v>
       </c>
-      <c r="H7" t="n">
+      <c r="V7" t="n">
         <v>38.30731764814891</v>
       </c>
-      <c r="I7" t="n">
+      <c r="W7" t="n">
         <v>2884.158778180619</v>
       </c>
-      <c r="J7" t="n">
+      <c r="X7" t="n">
         <v>243.6320167685814</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Y7" t="n">
         <v>353.7184562348427</v>
       </c>
-      <c r="L7" t="n">
+      <c r="Z7" t="n">
         <v>17.57795175567649</v>
       </c>
-      <c r="M7" t="n">
+      <c r="AA7" t="n">
         <v>244.2240809511906</v>
       </c>
-      <c r="N7" t="n">
+      <c r="AB7" t="n">
         <v>35.89492816239859</v>
       </c>
-      <c r="O7" t="n">
+      <c r="AC7" t="n">
         <v>39748.91055695822</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AD7" t="n">
         <v>1954.231772442519</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AE7" t="n">
         <v>7594.832236369612</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AF7" t="n">
         <v>2812.131488379547</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AG7" t="n">
         <v>259.3236854680563</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AH7" t="n">
         <v>711.5460650218032</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AI7" t="n">
         <v>38.13584943155273</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AJ7" t="n">
         <v>3523.67755340135</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AK7" t="n">
         <v>297.459534899609</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AL7" t="n">
         <v>443.638665347588</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AM7" t="n">
         <v>20.92133440938671</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AN7" t="n">
         <v>330.0160218141575</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AO7" t="n">
         <v>53.17140072714147</v>
       </c>
     </row>
@@ -1087,81 +1409,123 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>101945.0906995936</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1501.898795744248</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13459.07708019857</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5194.029235186279</v>
+      </c>
+      <c r="F8" t="n">
+        <v>516.5279512158792</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1635.528665212796</v>
+      </c>
+      <c r="H8" t="n">
+        <v>96.28743127181662</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6829.557900399075</v>
+      </c>
+      <c r="J8" t="n">
+        <v>612.8153824876958</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1099.03646532242</v>
+      </c>
+      <c r="L8" t="n">
+        <v>65.0424333913503</v>
+      </c>
+      <c r="M8" t="n">
+        <v>893.1452895163065</v>
+      </c>
+      <c r="N8" t="n">
+        <v>167.6166903710481</v>
+      </c>
+      <c r="O8" t="n">
+        <v>370.842183408181</v>
+      </c>
+      <c r="P8" t="n">
         <v>38666.44617415352</v>
       </c>
-      <c r="C8" t="n">
+      <c r="Q8" t="n">
         <v>1761.108252905832</v>
       </c>
-      <c r="D8" t="n">
+      <c r="R8" t="n">
         <v>5907.780197285741</v>
       </c>
-      <c r="E8" t="n">
+      <c r="S8" t="n">
         <v>2453.299623878735</v>
       </c>
-      <c r="F8" t="n">
+      <c r="T8" t="n">
         <v>231.9725186381782</v>
       </c>
-      <c r="G8" t="n">
+      <c r="U8" t="n">
         <v>839.1770725630356</v>
       </c>
-      <c r="H8" t="n">
+      <c r="V8" t="n">
         <v>44.43655945661627</v>
       </c>
-      <c r="I8" t="n">
+      <c r="W8" t="n">
         <v>3292.476696441771</v>
       </c>
-      <c r="J8" t="n">
+      <c r="X8" t="n">
         <v>276.4090780947945</v>
       </c>
-      <c r="K8" t="n">
+      <c r="Y8" t="n">
         <v>403.1707345705044</v>
       </c>
-      <c r="L8" t="n">
+      <c r="Z8" t="n">
         <v>23.22314552223716</v>
       </c>
-      <c r="M8" t="n">
+      <c r="AA8" t="n">
         <v>287.229812868405</v>
       </c>
-      <c r="N8" t="n">
+      <c r="AB8" t="n">
         <v>44.94408914964191</v>
       </c>
-      <c r="O8" t="n">
+      <c r="AC8" t="n">
         <v>36027.20407695029</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AD8" t="n">
         <v>1834.103387848691</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AE8" t="n">
         <v>6243.634696270775</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AF8" t="n">
         <v>2353.072603634937</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AG8" t="n">
         <v>231.5665083891014</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AH8" t="n">
         <v>667.878425248301</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AI8" t="n">
         <v>35.06300640891956</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AJ8" t="n">
         <v>3020.951028883238</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AK8" t="n">
         <v>266.6295147980209</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AL8" t="n">
         <v>413.1113148006331</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AM8" t="n">
         <v>19.79208500210665</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AN8" t="n">
         <v>297.0488495061834</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AO8" t="n">
         <v>50.37113890699165</v>
       </c>
     </row>
@@ -1172,81 +1536,123 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>101856.5998248505</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1506.670472202127</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14318.54622015824</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5460.093021064037</v>
+      </c>
+      <c r="F9" t="n">
+        <v>510.2920672150238</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1606.908355456887</v>
+      </c>
+      <c r="H9" t="n">
+        <v>93.48326057131429</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7067.001376520925</v>
+      </c>
+      <c r="J9" t="n">
+        <v>603.7753277863382</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1037.813260243038</v>
+      </c>
+      <c r="L9" t="n">
+        <v>65.79365992007199</v>
+      </c>
+      <c r="M9" t="n">
+        <v>838.4477022217351</v>
+      </c>
+      <c r="N9" t="n">
+        <v>150.5370517495074</v>
+      </c>
+      <c r="O9" t="n">
+        <v>364.5436222581205</v>
+      </c>
+      <c r="P9" t="n">
         <v>36440.72858284784</v>
       </c>
-      <c r="C9" t="n">
+      <c r="Q9" t="n">
         <v>1833.717587287561</v>
       </c>
-      <c r="D9" t="n">
+      <c r="R9" t="n">
         <v>5958.15467724795</v>
       </c>
-      <c r="E9" t="n">
+      <c r="S9" t="n">
         <v>2324.180100690997</v>
       </c>
-      <c r="F9" t="n">
+      <c r="T9" t="n">
         <v>213.7833744146907</v>
       </c>
-      <c r="G9" t="n">
+      <c r="U9" t="n">
         <v>759.8475574042693</v>
       </c>
-      <c r="H9" t="n">
+      <c r="V9" t="n">
         <v>39.15836666954452</v>
       </c>
-      <c r="I9" t="n">
+      <c r="W9" t="n">
         <v>3084.027658095266</v>
       </c>
-      <c r="J9" t="n">
+      <c r="X9" t="n">
         <v>252.9417410842352</v>
       </c>
-      <c r="K9" t="n">
+      <c r="Y9" t="n">
         <v>372.9624990529351</v>
       </c>
-      <c r="L9" t="n">
+      <c r="Z9" t="n">
         <v>22.9772389903973</v>
       </c>
-      <c r="M9" t="n">
+      <c r="AA9" t="n">
         <v>258.6483012491335</v>
       </c>
-      <c r="N9" t="n">
+      <c r="AB9" t="n">
         <v>36.90503339355683</v>
       </c>
-      <c r="O9" t="n">
+      <c r="AC9" t="n">
         <v>32822.24989419879</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AD9" t="n">
         <v>1972.533069187244</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AE9" t="n">
         <v>6602.999732912004</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AF9" t="n">
         <v>2669.182464448235</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AG9" t="n">
         <v>235.132952968134</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AH9" t="n">
         <v>710.5611556902799</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AI9" t="n">
         <v>36.91028573641209</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AJ9" t="n">
         <v>3379.743620138515</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AK9" t="n">
         <v>272.043238704546</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AL9" t="n">
         <v>360.4221816733501</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AM9" t="n">
         <v>19.16336104346119</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AN9" t="n">
         <v>250.370317805314</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AO9" t="n">
         <v>44.42988666735041</v>
       </c>
     </row>
@@ -1257,81 +1663,123 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>99150.82169287898</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1429.806720470185</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13517.16510619362</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5007.276556087312</v>
+      </c>
+      <c r="F10" t="n">
+        <v>483.4598938830949</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1546.169115695588</v>
+      </c>
+      <c r="H10" t="n">
+        <v>87.54614649373778</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6553.445671782901</v>
+      </c>
+      <c r="J10" t="n">
+        <v>571.0060403768326</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1062.931512655579</v>
+      </c>
+      <c r="L10" t="n">
+        <v>70.1479238976912</v>
+      </c>
+      <c r="M10" t="n">
+        <v>876.4790800108465</v>
+      </c>
+      <c r="N10" t="n">
+        <v>155.8692048149572</v>
+      </c>
+      <c r="O10" t="n">
+        <v>363.1279557792232</v>
+      </c>
+      <c r="P10" t="n">
         <v>38255.64517666001</v>
       </c>
-      <c r="C10" t="n">
+      <c r="Q10" t="n">
         <v>1766.883441174571</v>
       </c>
-      <c r="D10" t="n">
+      <c r="R10" t="n">
         <v>6193.01590876589</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="n">
         <v>2372.964735573008</v>
       </c>
-      <c r="F10" t="n">
+      <c r="T10" t="n">
         <v>224.3425409093067</v>
       </c>
-      <c r="G10" t="n">
+      <c r="U10" t="n">
         <v>827.9870874144821</v>
       </c>
-      <c r="H10" t="n">
+      <c r="V10" t="n">
         <v>41.58784447918433</v>
       </c>
-      <c r="I10" t="n">
+      <c r="W10" t="n">
         <v>3200.95182298749</v>
       </c>
-      <c r="J10" t="n">
+      <c r="X10" t="n">
         <v>265.930385388491</v>
       </c>
-      <c r="K10" t="n">
+      <c r="Y10" t="n">
         <v>400.3020953679732</v>
       </c>
-      <c r="L10" t="n">
+      <c r="Z10" t="n">
         <v>26.38165588884013</v>
       </c>
-      <c r="M10" t="n">
+      <c r="AA10" t="n">
         <v>289.7676027772649</v>
       </c>
-      <c r="N10" t="n">
+      <c r="AB10" t="n">
         <v>44.89919475651774</v>
       </c>
-      <c r="O10" t="n">
+      <c r="AC10" t="n">
         <v>31960.22600064877</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AD10" t="n">
         <v>1812.256080771003</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AE10" t="n">
         <v>5857.257841365194</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AF10" t="n">
         <v>2240.149115371444</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AG10" t="n">
         <v>206.092053379901</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AH10" t="n">
         <v>585.4340133463652</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AI10" t="n">
         <v>29.93613709859859</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AJ10" t="n">
         <v>2825.583128717809</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AK10" t="n">
         <v>236.0281904784996</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AL10" t="n">
         <v>365.933849250119</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AM10" t="n">
         <v>19.43182224566973</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AN10" t="n">
         <v>265.413380104986</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AO10" t="n">
         <v>44.40391729390301</v>
       </c>
     </row>
@@ -1342,81 +1790,123 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>102696.6997437322</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1475.300476873796</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14393.1420345868</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5479.468962751758</v>
+      </c>
+      <c r="F11" t="n">
+        <v>530.7590484722278</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1654.440145984328</v>
+      </c>
+      <c r="H11" t="n">
+        <v>96.88513037057783</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7133.909108736087</v>
+      </c>
+      <c r="J11" t="n">
+        <v>627.6441788428057</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1082.885076887469</v>
+      </c>
+      <c r="L11" t="n">
+        <v>67.46492623516828</v>
+      </c>
+      <c r="M11" t="n">
+        <v>905.8792977612055</v>
+      </c>
+      <c r="N11" t="n">
+        <v>159.0719190737565</v>
+      </c>
+      <c r="O11" t="n">
+        <v>360.1145346300518</v>
+      </c>
+      <c r="P11" t="n">
         <v>34205.07958177093</v>
       </c>
-      <c r="C11" t="n">
+      <c r="Q11" t="n">
         <v>1752.370680344522</v>
       </c>
-      <c r="D11" t="n">
+      <c r="R11" t="n">
         <v>5453.99385887174</v>
       </c>
-      <c r="E11" t="n">
+      <c r="S11" t="n">
         <v>2133.668123212671</v>
       </c>
-      <c r="F11" t="n">
+      <c r="T11" t="n">
         <v>202.9644532584234</v>
       </c>
-      <c r="G11" t="n">
+      <c r="U11" t="n">
         <v>744.842622276547</v>
       </c>
-      <c r="H11" t="n">
+      <c r="V11" t="n">
         <v>37.46209824611816</v>
       </c>
-      <c r="I11" t="n">
+      <c r="W11" t="n">
         <v>2878.510745489218</v>
       </c>
-      <c r="J11" t="n">
+      <c r="X11" t="n">
         <v>240.4265515045415</v>
       </c>
-      <c r="K11" t="n">
+      <c r="Y11" t="n">
         <v>349.6933136790033</v>
       </c>
-      <c r="L11" t="n">
+      <c r="Z11" t="n">
         <v>20.35895531075379</v>
       </c>
-      <c r="M11" t="n">
+      <c r="AA11" t="n">
         <v>252.169763229969</v>
       </c>
-      <c r="N11" t="n">
+      <c r="AB11" t="n">
         <v>36.17941948018166</v>
       </c>
-      <c r="O11" t="n">
+      <c r="AC11" t="n">
         <v>38494.82309156028</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AD11" t="n">
         <v>1917.931615868652</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AE11" t="n">
         <v>7360.582111863511</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AF11" t="n">
         <v>2925.93209082244</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AG11" t="n">
         <v>274.6926342690621</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AH11" t="n">
         <v>792.0766859198609</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AI11" t="n">
         <v>41.91618988838238</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AJ11" t="n">
         <v>3718.008776742302</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AK11" t="n">
         <v>316.6088241574445</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AL11" t="n">
         <v>446.6336069517446</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AM11" t="n">
         <v>22.60223208019178</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AN11" t="n">
         <v>329.091952054256</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AO11" t="n">
         <v>57.49436285072487</v>
       </c>
     </row>
@@ -1427,81 +1917,123 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>102024.970219045</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1537.335308781966</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13453.6315628426</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4864.346995275206</v>
+      </c>
+      <c r="F12" t="n">
+        <v>487.203294425608</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1564.675262481845</v>
+      </c>
+      <c r="H12" t="n">
+        <v>90.05783109187715</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6429.02225775705</v>
+      </c>
+      <c r="J12" t="n">
+        <v>577.2611255174851</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1094.636184373178</v>
+      </c>
+      <c r="L12" t="n">
+        <v>63.76303779004662</v>
+      </c>
+      <c r="M12" t="n">
+        <v>894.2485944485902</v>
+      </c>
+      <c r="N12" t="n">
+        <v>159.6530277808585</v>
+      </c>
+      <c r="O12" t="n">
+        <v>374.412778141813</v>
+      </c>
+      <c r="P12" t="n">
         <v>32758.08195563007</v>
       </c>
-      <c r="C12" t="n">
+      <c r="Q12" t="n">
         <v>1793.357040425116</v>
       </c>
-      <c r="D12" t="n">
+      <c r="R12" t="n">
         <v>5238.694765575687</v>
       </c>
-      <c r="E12" t="n">
+      <c r="S12" t="n">
         <v>2086.253184673554</v>
       </c>
-      <c r="F12" t="n">
+      <c r="T12" t="n">
         <v>199.2119480330693</v>
       </c>
-      <c r="G12" t="n">
+      <c r="U12" t="n">
         <v>791.565795236153</v>
       </c>
-      <c r="H12" t="n">
+      <c r="V12" t="n">
         <v>38.89003550448751</v>
       </c>
-      <c r="I12" t="n">
+      <c r="W12" t="n">
         <v>2877.818979909707</v>
       </c>
-      <c r="J12" t="n">
+      <c r="X12" t="n">
         <v>238.1019835375568</v>
       </c>
-      <c r="K12" t="n">
+      <c r="Y12" t="n">
         <v>345.8938173378686</v>
       </c>
-      <c r="L12" t="n">
+      <c r="Z12" t="n">
         <v>20.40748480673266</v>
       </c>
-      <c r="M12" t="n">
+      <c r="AA12" t="n">
         <v>237.5930698026506</v>
       </c>
-      <c r="N12" t="n">
+      <c r="AB12" t="n">
         <v>37.69317383878818</v>
       </c>
-      <c r="O12" t="n">
+      <c r="AC12" t="n">
         <v>38599.67811345107</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AD12" t="n">
         <v>1932.322711398921</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AE12" t="n">
         <v>6718.351363627067</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AF12" t="n">
         <v>2380.928069859604</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AG12" t="n">
         <v>233.8774139636755</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AH12" t="n">
         <v>647.6339143920569</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AI12" t="n">
         <v>34.44766538418413</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AJ12" t="n">
         <v>3028.561984251661</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AK12" t="n">
         <v>268.3250793478596</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AL12" t="n">
         <v>441.1664114612844</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AM12" t="n">
         <v>20.96319904245146</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AN12" t="n">
         <v>328.5689656180538</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AO12" t="n">
         <v>53.81616349185092</v>
       </c>
     </row>
@@ -1512,81 +2044,123 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>102171.3228005513</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1553.250602243939</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14146.36803001542</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5485.61973796871</v>
+      </c>
+      <c r="F13" t="n">
+        <v>525.9615935602695</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1708.85735132694</v>
+      </c>
+      <c r="H13" t="n">
+        <v>99.31220181003748</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7194.477089295651</v>
+      </c>
+      <c r="J13" t="n">
+        <v>625.273795370307</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1105.512580195939</v>
+      </c>
+      <c r="L13" t="n">
+        <v>68.06678552573571</v>
+      </c>
+      <c r="M13" t="n">
+        <v>899.5969926350439</v>
+      </c>
+      <c r="N13" t="n">
+        <v>167.7592050481605</v>
+      </c>
+      <c r="O13" t="n">
+        <v>380.2438218139744</v>
+      </c>
+      <c r="P13" t="n">
         <v>34953.74543420662</v>
       </c>
-      <c r="C13" t="n">
+      <c r="Q13" t="n">
         <v>1866.032217015614</v>
       </c>
-      <c r="D13" t="n">
+      <c r="R13" t="n">
         <v>5656.712370198617</v>
       </c>
-      <c r="E13" t="n">
+      <c r="S13" t="n">
         <v>2394.085879409804</v>
       </c>
-      <c r="F13" t="n">
+      <c r="T13" t="n">
         <v>222.110488791928</v>
       </c>
-      <c r="G13" t="n">
+      <c r="U13" t="n">
         <v>856.2483521944293</v>
       </c>
-      <c r="H13" t="n">
+      <c r="V13" t="n">
         <v>43.45043130386292</v>
       </c>
-      <c r="I13" t="n">
+      <c r="W13" t="n">
         <v>3250.334231604233</v>
       </c>
-      <c r="J13" t="n">
+      <c r="X13" t="n">
         <v>265.5609200957909</v>
       </c>
-      <c r="K13" t="n">
+      <c r="Y13" t="n">
         <v>367.3673110889612</v>
       </c>
-      <c r="L13" t="n">
+      <c r="Z13" t="n">
         <v>22.13109474157912</v>
       </c>
-      <c r="M13" t="n">
+      <c r="AA13" t="n">
         <v>258.7621329727833</v>
       </c>
-      <c r="N13" t="n">
+      <c r="AB13" t="n">
         <v>40.62741098809929</v>
       </c>
-      <c r="O13" t="n">
+      <c r="AC13" t="n">
         <v>37707.68500705942</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AD13" t="n">
         <v>1927.470901623121</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AE13" t="n">
         <v>7011.104832049384</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AF13" t="n">
         <v>2696.729128388443</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AG13" t="n">
         <v>251.0553186819429</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AH13" t="n">
         <v>725.6114142936802</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AI13" t="n">
         <v>39.06582525829596</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AJ13" t="n">
         <v>3422.340542682123</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AK13" t="n">
         <v>290.1211439402388</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AL13" t="n">
         <v>431.0926321078739</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AM13" t="n">
         <v>21.21677259777582</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AN13" t="n">
         <v>307.5498847283098</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AO13" t="n">
         <v>53.45620293251407</v>
       </c>
     </row>
@@ -1597,81 +2171,123 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>98900.32164948646</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1494.111817529004</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12536.72993700095</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4541.135609379274</v>
+      </c>
+      <c r="F14" t="n">
+        <v>455.7127143845605</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1365.114265309972</v>
+      </c>
+      <c r="H14" t="n">
+        <v>79.0080803012783</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5906.249874689245</v>
+      </c>
+      <c r="J14" t="n">
+        <v>534.7207946858389</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1018.578143580321</v>
+      </c>
+      <c r="L14" t="n">
+        <v>61.42942017620595</v>
+      </c>
+      <c r="M14" t="n">
+        <v>851.2818763912226</v>
+      </c>
+      <c r="N14" t="n">
+        <v>150.7021394029028</v>
+      </c>
+      <c r="O14" t="n">
+        <v>375.0029001234141</v>
+      </c>
+      <c r="P14" t="n">
         <v>32963.50632179116</v>
       </c>
-      <c r="C14" t="n">
+      <c r="Q14" t="n">
         <v>1767.23706594256</v>
       </c>
-      <c r="D14" t="n">
+      <c r="R14" t="n">
         <v>4769.842932808218</v>
       </c>
-      <c r="E14" t="n">
+      <c r="S14" t="n">
         <v>1895.187098614456</v>
       </c>
-      <c r="F14" t="n">
+      <c r="T14" t="n">
         <v>184.84857931165</v>
       </c>
-      <c r="G14" t="n">
+      <c r="U14" t="n">
         <v>679.4621046825976</v>
       </c>
-      <c r="H14" t="n">
+      <c r="V14" t="n">
         <v>32.77406582441426</v>
       </c>
-      <c r="I14" t="n">
+      <c r="W14" t="n">
         <v>2574.649203297054</v>
       </c>
-      <c r="J14" t="n">
+      <c r="X14" t="n">
         <v>217.6226451360643</v>
       </c>
-      <c r="K14" t="n">
+      <c r="Y14" t="n">
         <v>333.4816257848676</v>
       </c>
-      <c r="L14" t="n">
+      <c r="Z14" t="n">
         <v>19.66103671024132</v>
       </c>
-      <c r="M14" t="n">
+      <c r="AA14" t="n">
         <v>237.581875238145</v>
       </c>
-      <c r="N14" t="n">
+      <c r="AB14" t="n">
         <v>35.65024436258229</v>
       </c>
-      <c r="O14" t="n">
+      <c r="AC14" t="n">
         <v>37916.45322392388</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AD14" t="n">
         <v>1904.955064933057</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AE14" t="n">
         <v>6502.18421103032</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AF14" t="n">
         <v>2245.90156479402</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AG14" t="n">
         <v>218.1427384878003</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AH14" t="n">
         <v>557.7131031458366</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AI14" t="n">
         <v>29.90705738630099</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AJ14" t="n">
         <v>2803.614667939856</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AK14" t="n">
         <v>248.0497958741013</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AL14" t="n">
         <v>409.2760007511265</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AM14" t="n">
         <v>19.85950173582542</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AN14" t="n">
         <v>304.509415916294</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AO14" t="n">
         <v>50.69267749269447</v>
       </c>
     </row>
@@ -1682,81 +2298,123 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>102127.7787701646</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1554.329681785194</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14004.31508890934</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5311.351570118153</v>
+      </c>
+      <c r="F15" t="n">
+        <v>506.7978499255091</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1562.561801817511</v>
+      </c>
+      <c r="H15" t="n">
+        <v>90.51184395089408</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6873.913371935664</v>
+      </c>
+      <c r="J15" t="n">
+        <v>597.3096938764032</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1077.646990648883</v>
+      </c>
+      <c r="L15" t="n">
+        <v>66.63796652939443</v>
+      </c>
+      <c r="M15" t="n">
+        <v>890.6492398684986</v>
+      </c>
+      <c r="N15" t="n">
+        <v>154.3365670962022</v>
+      </c>
+      <c r="O15" t="n">
+        <v>379.5691534415949</v>
+      </c>
+      <c r="P15" t="n">
         <v>32220.02150676567</v>
       </c>
-      <c r="C15" t="n">
+      <c r="Q15" t="n">
         <v>1830.580065384755</v>
       </c>
-      <c r="D15" t="n">
+      <c r="R15" t="n">
         <v>5301.239069384605</v>
       </c>
-      <c r="E15" t="n">
+      <c r="S15" t="n">
         <v>2132.011747436541</v>
       </c>
-      <c r="F15" t="n">
+      <c r="T15" t="n">
         <v>198.2071088969121</v>
       </c>
-      <c r="G15" t="n">
+      <c r="U15" t="n">
         <v>695.8568040917461</v>
       </c>
-      <c r="H15" t="n">
+      <c r="V15" t="n">
         <v>35.4765987436576</v>
       </c>
-      <c r="I15" t="n">
+      <c r="W15" t="n">
         <v>2827.868551528287</v>
       </c>
-      <c r="J15" t="n">
+      <c r="X15" t="n">
         <v>233.6837076405697</v>
       </c>
-      <c r="K15" t="n">
+      <c r="Y15" t="n">
         <v>336.9844681024867</v>
       </c>
-      <c r="L15" t="n">
+      <c r="Z15" t="n">
         <v>20.6634454395392</v>
       </c>
-      <c r="M15" t="n">
+      <c r="AA15" t="n">
         <v>241.4789991936919</v>
       </c>
-      <c r="N15" t="n">
+      <c r="AB15" t="n">
         <v>36.72691545228616</v>
       </c>
-      <c r="O15" t="n">
+      <c r="AC15" t="n">
         <v>38633.96516341814</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AD15" t="n">
         <v>1969.789367164996</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AE15" t="n">
         <v>6997.280355470257</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AF15" t="n">
         <v>2697.922713108198</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AG15" t="n">
         <v>250.4019201540983</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AH15" t="n">
         <v>733.9124385027154</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AI15" t="n">
         <v>37.36432920592028</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AJ15" t="n">
         <v>3431.835151610913</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AK15" t="n">
         <v>287.7662493600186</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AL15" t="n">
         <v>425.14171812629</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AM15" t="n">
         <v>20.73584994464252</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AN15" t="n">
         <v>313.5033248193728</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AO15" t="n">
         <v>49.95718077567489</v>
       </c>
     </row>
@@ -1767,81 +2425,123 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>100760.7948212294</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1484.534987332207</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13473.34811769216</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4978.758150524858</v>
+      </c>
+      <c r="F16" t="n">
+        <v>475.5174420779827</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1492.88401020848</v>
+      </c>
+      <c r="H16" t="n">
+        <v>84.63897080028377</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6471.642160733338</v>
+      </c>
+      <c r="J16" t="n">
+        <v>560.1564128782665</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1058.774804140855</v>
+      </c>
+      <c r="L16" t="n">
+        <v>56.24170559614623</v>
+      </c>
+      <c r="M16" t="n">
+        <v>861.898267906707</v>
+      </c>
+      <c r="N16" t="n">
+        <v>148.051048681639</v>
+      </c>
+      <c r="O16" t="n">
+        <v>366.3919606058261</v>
+      </c>
+      <c r="P16" t="n">
         <v>30965.54675942479</v>
       </c>
-      <c r="C16" t="n">
+      <c r="Q16" t="n">
         <v>1800.850341017</v>
       </c>
-      <c r="D16" t="n">
+      <c r="R16" t="n">
         <v>4916.24135140615</v>
       </c>
-      <c r="E16" t="n">
+      <c r="S16" t="n">
         <v>1966.027655306044</v>
       </c>
-      <c r="F16" t="n">
+      <c r="T16" t="n">
         <v>183.1214673779982</v>
       </c>
-      <c r="G16" t="n">
+      <c r="U16" t="n">
         <v>677.8628917114975</v>
       </c>
-      <c r="H16" t="n">
+      <c r="V16" t="n">
         <v>33.30107361485849</v>
       </c>
-      <c r="I16" t="n">
+      <c r="W16" t="n">
         <v>2643.890547017541</v>
       </c>
-      <c r="J16" t="n">
+      <c r="X16" t="n">
         <v>216.4225409928567</v>
       </c>
-      <c r="K16" t="n">
+      <c r="Y16" t="n">
         <v>323.6035574796436</v>
       </c>
-      <c r="L16" t="n">
+      <c r="Z16" t="n">
         <v>17.61052936080061</v>
       </c>
-      <c r="M16" t="n">
+      <c r="AA16" t="n">
         <v>223.6140481905484</v>
       </c>
-      <c r="N16" t="n">
+      <c r="AB16" t="n">
         <v>33.918905803945</v>
       </c>
-      <c r="O16" t="n">
+      <c r="AC16" t="n">
         <v>38398.02693295938</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AD16" t="n">
         <v>1890.408695170702</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AE16" t="n">
         <v>7041.233320611997</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AF16" t="n">
         <v>2613.129243165958</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AG16" t="n">
         <v>240.5277961084957</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AH16" t="n">
         <v>698.5232165099505</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AI16" t="n">
         <v>34.20702297399577</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AJ16" t="n">
         <v>3311.652459675908</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AK16" t="n">
         <v>274.7348190824914</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AL16" t="n">
         <v>432.9397177833973</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AM16" t="n">
         <v>19.23656628065979</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AN16" t="n">
         <v>318.9259233922268</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AO16" t="n">
         <v>48.19573460368308</v>
       </c>
     </row>
@@ -1852,81 +2552,123 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>103835.4285038849</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1555.198250264266</v>
+      </c>
+      <c r="D17" t="n">
+        <v>14649.82345977266</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5479.858434894362</v>
+      </c>
+      <c r="F17" t="n">
+        <v>516.5043181582041</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1628.893683969357</v>
+      </c>
+      <c r="H17" t="n">
+        <v>94.38049599000713</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7108.752118863719</v>
+      </c>
+      <c r="J17" t="n">
+        <v>610.8848141482111</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1085.654307358259</v>
+      </c>
+      <c r="L17" t="n">
+        <v>58.95570330811648</v>
+      </c>
+      <c r="M17" t="n">
+        <v>891.4314593403967</v>
+      </c>
+      <c r="N17" t="n">
+        <v>162.9861878337547</v>
+      </c>
+      <c r="O17" t="n">
+        <v>371.2623989490295</v>
+      </c>
+      <c r="P17" t="n">
         <v>32092.43569744579</v>
       </c>
-      <c r="C17" t="n">
+      <c r="Q17" t="n">
         <v>1842.455613025959</v>
       </c>
-      <c r="D17" t="n">
+      <c r="R17" t="n">
         <v>5183.70059725008</v>
       </c>
-      <c r="E17" t="n">
+      <c r="S17" t="n">
         <v>2048.634412762716</v>
       </c>
-      <c r="F17" t="n">
+      <c r="T17" t="n">
         <v>193.8997873659992</v>
       </c>
-      <c r="G17" t="n">
+      <c r="U17" t="n">
         <v>705.9473503914388</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
         <v>36.12607865931245</v>
       </c>
-      <c r="I17" t="n">
+      <c r="W17" t="n">
         <v>2754.581763154155</v>
       </c>
-      <c r="J17" t="n">
+      <c r="X17" t="n">
         <v>230.0258660253117</v>
       </c>
-      <c r="K17" t="n">
+      <c r="Y17" t="n">
         <v>334.2046841778367</v>
       </c>
-      <c r="L17" t="n">
+      <c r="Z17" t="n">
         <v>17.21672867397698</v>
       </c>
-      <c r="M17" t="n">
+      <c r="AA17" t="n">
         <v>228.8672944249722</v>
       </c>
-      <c r="N17" t="n">
+      <c r="AB17" t="n">
         <v>34.66413181414439</v>
       </c>
-      <c r="O17" t="n">
+      <c r="AC17" t="n">
         <v>40525.21044240975</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AD17" t="n">
         <v>1970.158275158401</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AE17" t="n">
         <v>7900.865829780558</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AF17" t="n">
         <v>3001.926673098896</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AG17" t="n">
         <v>271.3109752725626</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AH17" t="n">
         <v>806.4426957447115</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AI17" t="n">
         <v>41.23337589593452</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AJ17" t="n">
         <v>3808.369368843608</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AK17" t="n">
         <v>312.5443511684971</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AL17" t="n">
         <v>444.2224908853827</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AM17" t="n">
         <v>19.77996690059289</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AN17" t="n">
         <v>333.5524342211514</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AO17" t="n">
         <v>58.48504078741644</v>
       </c>
     </row>
@@ -1937,81 +2679,123 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>107480.1303104399</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1602.249834091883</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16585.50248271672</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6687.761944585897</v>
+      </c>
+      <c r="F18" t="n">
+        <v>622.47444551949</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1861.235116552186</v>
+      </c>
+      <c r="H18" t="n">
+        <v>114.9469278432924</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8548.997061138083</v>
+      </c>
+      <c r="J18" t="n">
+        <v>737.4213733627826</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1139.030122782213</v>
+      </c>
+      <c r="L18" t="n">
+        <v>66.41719148213298</v>
+      </c>
+      <c r="M18" t="n">
+        <v>908.2197259770019</v>
+      </c>
+      <c r="N18" t="n">
+        <v>181.455571001534</v>
+      </c>
+      <c r="O18" t="n">
+        <v>375.0667245003939</v>
+      </c>
+      <c r="P18" t="n">
         <v>32706.80719737224</v>
       </c>
-      <c r="C18" t="n">
+      <c r="Q18" t="n">
         <v>1854.540548606246</v>
       </c>
-      <c r="D18" t="n">
+      <c r="R18" t="n">
         <v>5486.705109831577</v>
       </c>
-      <c r="E18" t="n">
+      <c r="S18" t="n">
         <v>2073.734208818265</v>
       </c>
-      <c r="F18" t="n">
+      <c r="T18" t="n">
         <v>203.242568382218</v>
       </c>
-      <c r="G18" t="n">
+      <c r="U18" t="n">
         <v>621.2318161859457</v>
       </c>
-      <c r="H18" t="n">
+      <c r="V18" t="n">
         <v>35.01734905756427</v>
       </c>
-      <c r="I18" t="n">
+      <c r="W18" t="n">
         <v>2694.96602500421</v>
       </c>
-      <c r="J18" t="n">
+      <c r="X18" t="n">
         <v>238.2599174397823</v>
       </c>
-      <c r="K18" t="n">
+      <c r="Y18" t="n">
         <v>341.7040212931961</v>
       </c>
-      <c r="L18" t="n">
+      <c r="Z18" t="n">
         <v>19.8393154251435</v>
       </c>
-      <c r="M18" t="n">
+      <c r="AA18" t="n">
         <v>237.7130449073506</v>
       </c>
-      <c r="N18" t="n">
+      <c r="AB18" t="n">
         <v>38.00438393296406</v>
       </c>
-      <c r="O18" t="n">
+      <c r="AC18" t="n">
         <v>41842.81071672353</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AD18" t="n">
         <v>2147.247733113258</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AE18" t="n">
         <v>9202.918048062398</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AF18" t="n">
         <v>3992.576644895034</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AG18" t="n">
         <v>352.9747693873791</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AH18" t="n">
         <v>1100.605823962163</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AI18" t="n">
         <v>60.41563664314325</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AJ18" t="n">
         <v>5093.182468857197</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AK18" t="n">
         <v>413.3904060305224</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AL18" t="n">
         <v>467.8653562805059</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AM18" t="n">
         <v>22.64911874439506</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AN18" t="n">
         <v>325.7334128163661</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AO18" t="n">
         <v>67.31286071329997</v>
       </c>
     </row>
@@ -2022,81 +2806,123 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>101949.0910581661</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1569.722167613297</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14051.18244157735</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5338.511307776367</v>
+      </c>
+      <c r="F19" t="n">
+        <v>526.1481547742378</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1720.442940805862</v>
+      </c>
+      <c r="H19" t="n">
+        <v>99.80376087336552</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7058.954248582229</v>
+      </c>
+      <c r="J19" t="n">
+        <v>625.9519156476034</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1084.957255120586</v>
+      </c>
+      <c r="L19" t="n">
+        <v>65.02917965379798</v>
+      </c>
+      <c r="M19" t="n">
+        <v>878.5786871788091</v>
+      </c>
+      <c r="N19" t="n">
+        <v>157.531238573527</v>
+      </c>
+      <c r="O19" t="n">
+        <v>388.213201223119</v>
+      </c>
+      <c r="P19" t="n">
         <v>34994.11276809201</v>
       </c>
-      <c r="C19" t="n">
+      <c r="Q19" t="n">
         <v>1886.173303597148</v>
       </c>
-      <c r="D19" t="n">
+      <c r="R19" t="n">
         <v>5831.629067891557</v>
       </c>
-      <c r="E19" t="n">
+      <c r="S19" t="n">
         <v>2289.377205619548</v>
       </c>
-      <c r="F19" t="n">
+      <c r="T19" t="n">
         <v>219.4289286512258</v>
       </c>
-      <c r="G19" t="n">
+      <c r="U19" t="n">
         <v>815.779541114235</v>
       </c>
-      <c r="H19" t="n">
+      <c r="V19" t="n">
         <v>42.00194898887105</v>
       </c>
-      <c r="I19" t="n">
+      <c r="W19" t="n">
         <v>3105.156746733783</v>
       </c>
-      <c r="J19" t="n">
+      <c r="X19" t="n">
         <v>261.4308776400969</v>
       </c>
-      <c r="K19" t="n">
+      <c r="Y19" t="n">
         <v>364.9969406796904</v>
       </c>
-      <c r="L19" t="n">
+      <c r="Z19" t="n">
         <v>22.33109916375548</v>
       </c>
-      <c r="M19" t="n">
+      <c r="AA19" t="n">
         <v>251.4333672983258</v>
       </c>
-      <c r="N19" t="n">
+      <c r="AB19" t="n">
         <v>38.02113080195703</v>
       </c>
-      <c r="O19" t="n">
+      <c r="AC19" t="n">
         <v>35593.54238090029</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AD19" t="n">
         <v>1956.507447167411</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AE19" t="n">
         <v>6581.101173174808</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AF19" t="n">
         <v>2583.964680104031</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AG19" t="n">
         <v>247.1156971093195</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AH19" t="n">
         <v>746.6306666501458</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AI19" t="n">
         <v>39.28784236278945</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AJ19" t="n">
         <v>3330.595346754177</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AK19" t="n">
         <v>286.4035394721089</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AL19" t="n">
         <v>411.6386442342052</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AM19" t="n">
         <v>20.93217797149137</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AN19" t="n">
         <v>290.2335250147322</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AO19" t="n">
         <v>49.70419316230832</v>
       </c>
     </row>
@@ -2107,81 +2933,123 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>101556.4102998331</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1509.06961235162</v>
+      </c>
+      <c r="D20" t="n">
+        <v>13502.16651069577</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4864.360816765022</v>
+      </c>
+      <c r="F20" t="n">
+        <v>476.6110509620922</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1417.58076521188</v>
+      </c>
+      <c r="H20" t="n">
+        <v>83.41526269832744</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6281.941581976902</v>
+      </c>
+      <c r="J20" t="n">
+        <v>560.0263136604196</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1052.870983639873</v>
+      </c>
+      <c r="L20" t="n">
+        <v>59.42186762288691</v>
+      </c>
+      <c r="M20" t="n">
+        <v>871.4274506164522</v>
+      </c>
+      <c r="N20" t="n">
+        <v>147.8640466580171</v>
+      </c>
+      <c r="O20" t="n">
+        <v>371.5753075053512</v>
+      </c>
+      <c r="P20" t="n">
         <v>33635.70042211857</v>
       </c>
-      <c r="C20" t="n">
+      <c r="Q20" t="n">
         <v>1841.903180168291</v>
       </c>
-      <c r="D20" t="n">
+      <c r="R20" t="n">
         <v>5305.916087443142</v>
       </c>
-      <c r="E20" t="n">
+      <c r="S20" t="n">
         <v>2031.035600461399</v>
       </c>
-      <c r="F20" t="n">
+      <c r="T20" t="n">
         <v>191.4129089669059</v>
       </c>
-      <c r="G20" t="n">
+      <c r="U20" t="n">
         <v>655.4278370891473</v>
       </c>
-      <c r="H20" t="n">
+      <c r="V20" t="n">
         <v>33.78516259738231</v>
       </c>
-      <c r="I20" t="n">
+      <c r="W20" t="n">
         <v>2686.463437550546</v>
       </c>
-      <c r="J20" t="n">
+      <c r="X20" t="n">
         <v>225.1980715642882</v>
       </c>
-      <c r="K20" t="n">
+      <c r="Y20" t="n">
         <v>354.8949109155481</v>
       </c>
-      <c r="L20" t="n">
+      <c r="Z20" t="n">
         <v>18.95430460545614</v>
       </c>
-      <c r="M20" t="n">
+      <c r="AA20" t="n">
         <v>248.556750185756</v>
       </c>
-      <c r="N20" t="n">
+      <c r="AB20" t="n">
         <v>36.54961972291465</v>
       </c>
-      <c r="O20" t="n">
+      <c r="AC20" t="n">
         <v>38194.24051650666</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AD20" t="n">
         <v>1887.986747529322</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AE20" t="n">
         <v>6792.473984308117</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AF20" t="n">
         <v>2444.004356279804</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AG20" t="n">
         <v>232.3109276618534</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AH20" t="n">
         <v>640.7241277567756</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AI20" t="n">
         <v>33.65720504742838</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AJ20" t="n">
         <v>3084.728484036579</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AK20" t="n">
         <v>265.9681327092818</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AL20" t="n">
         <v>421.0167316122428</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AM20" t="n">
         <v>20.40228236563006</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AN20" t="n">
         <v>312.3413544941554</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AO20" t="n">
         <v>48.51663485661462</v>
       </c>
     </row>
@@ -2192,81 +3060,123 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>104479.7719650688</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1505.212125308778</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14869.89590818723</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5487.111286901779</v>
+      </c>
+      <c r="F21" t="n">
+        <v>531.0269007001118</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1638.943916726152</v>
+      </c>
+      <c r="H21" t="n">
+        <v>95.89333447594699</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7126.055203627931</v>
+      </c>
+      <c r="J21" t="n">
+        <v>626.9202351760588</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1096.622783787939</v>
+      </c>
+      <c r="L21" t="n">
+        <v>62.30435960656141</v>
+      </c>
+      <c r="M21" t="n">
+        <v>919.0891108513039</v>
+      </c>
+      <c r="N21" t="n">
+        <v>150.3256747742512</v>
+      </c>
+      <c r="O21" t="n">
+        <v>361.1376878284331</v>
+      </c>
+      <c r="P21" t="n">
         <v>34289.36642145396</v>
       </c>
-      <c r="C21" t="n">
+      <c r="Q21" t="n">
         <v>1785.135697777305</v>
       </c>
-      <c r="D21" t="n">
+      <c r="R21" t="n">
         <v>5425.660954276913</v>
       </c>
-      <c r="E21" t="n">
+      <c r="S21" t="n">
         <v>2109.576997424297</v>
       </c>
-      <c r="F21" t="n">
+      <c r="T21" t="n">
         <v>197.5925635397815</v>
       </c>
-      <c r="G21" t="n">
+      <c r="U21" t="n">
         <v>737.2301563109829</v>
       </c>
-      <c r="H21" t="n">
+      <c r="V21" t="n">
         <v>37.39092385780267</v>
       </c>
-      <c r="I21" t="n">
+      <c r="W21" t="n">
         <v>2846.80715373528</v>
       </c>
-      <c r="J21" t="n">
+      <c r="X21" t="n">
         <v>234.9834873975841</v>
       </c>
-      <c r="K21" t="n">
+      <c r="Y21" t="n">
         <v>353.6356650982439</v>
       </c>
-      <c r="L21" t="n">
+      <c r="Z21" t="n">
         <v>19.43139192956996</v>
       </c>
-      <c r="M21" t="n">
+      <c r="AA21" t="n">
         <v>250.3691403750342</v>
       </c>
-      <c r="N21" t="n">
+      <c r="AB21" t="n">
         <v>36.53557994697282</v>
       </c>
-      <c r="O21" t="n">
+      <c r="AC21" t="n">
         <v>41663.34866694458</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AD21" t="n">
         <v>1923.054261902613</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AE21" t="n">
         <v>7949.114128038998</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AF21" t="n">
         <v>2965.687650254197</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AG21" t="n">
         <v>277.0982982233472</v>
       </c>
-      <c r="T21" t="n">
+      <c r="AH21" t="n">
         <v>781.4176108836199</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AI21" t="n">
         <v>41.08631266665343</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AJ21" t="n">
         <v>3747.105261137817</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AK21" t="n">
         <v>318.1846108900007</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AL21" t="n">
         <v>462.5051145262245</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AM21" t="n">
         <v>20.58648107071341</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AN21" t="n">
         <v>352.7150321250502</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AO21" t="n">
         <v>54.79992878442881</v>
       </c>
     </row>

--- a/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_physical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -686,85 +681,82 @@
         <v>167.6313998707799</v>
       </c>
       <c r="O2" t="n">
-        <v>382.2895863511616</v>
+        <v>55911.32656813641</v>
       </c>
       <c r="P2" t="n">
-        <v>36984.78942497371</v>
+        <v>1863.713111023834</v>
       </c>
       <c r="Q2" t="n">
-        <v>1863.713111023834</v>
+        <v>9408.871176177026</v>
       </c>
       <c r="R2" t="n">
-        <v>5864.194604207496</v>
+        <v>3976.277498699013</v>
       </c>
       <c r="S2" t="n">
-        <v>2291.779877781744</v>
+        <v>381.4698591058453</v>
       </c>
       <c r="T2" t="n">
-        <v>221.0521250706038</v>
+        <v>1521.785939023249</v>
       </c>
       <c r="U2" t="n">
-        <v>799.587147699983</v>
+        <v>72.30216914661474</v>
       </c>
       <c r="V2" t="n">
-        <v>40.3001736459458</v>
+        <v>5498.061942828946</v>
       </c>
       <c r="W2" t="n">
-        <v>3091.367025481727</v>
+        <v>453.7693438040434</v>
       </c>
       <c r="X2" t="n">
-        <v>261.3522987165496</v>
+        <v>612.8272181913402</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.013095416546</v>
+        <v>36.58447530906209</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.91741730592575</v>
+        <v>414.4049613698796</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.0250160352341</v>
+        <v>67.21249969922411</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.65753511656836</v>
+        <v>61665.7730238195</v>
       </c>
       <c r="AC2" t="n">
-        <v>35318.30623147275</v>
+        <v>2055.524019744857</v>
       </c>
       <c r="AD2" t="n">
-        <v>2055.524019744857</v>
+        <v>12664.768833799</v>
       </c>
       <c r="AE2" t="n">
-        <v>7035.737028209332</v>
+        <v>5377.458790605414</v>
       </c>
       <c r="AF2" t="n">
-        <v>2898.498343348916</v>
+        <v>485.0989502419088</v>
       </c>
       <c r="AG2" t="n">
-        <v>262.4617143176719</v>
+        <v>1470.387312434579</v>
       </c>
       <c r="AH2" t="n">
-        <v>757.7201179376283</v>
+        <v>75.96297230748918</v>
       </c>
       <c r="AI2" t="n">
-        <v>39.44895443994156</v>
+        <v>6847.83915737625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3656.218461286545</v>
+        <v>561.0684718661021</v>
       </c>
       <c r="AK2" t="n">
-        <v>301.9106687576135</v>
+        <v>713.0540547449953</v>
       </c>
       <c r="AL2" t="n">
-        <v>416.4765382603131</v>
+        <v>40.93722746279575</v>
       </c>
       <c r="AM2" t="n">
-        <v>21.35569289610375</v>
+        <v>497.6075711316399</v>
       </c>
       <c r="AN2" t="n">
-        <v>294.2538785565282</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>55.32037164341867</v>
+        <v>99.55939130536298</v>
       </c>
     </row>
     <row r="3">
@@ -813,85 +805,82 @@
         <v>162.8207411798939</v>
       </c>
       <c r="O3" t="n">
-        <v>363.0559861045939</v>
+        <v>50713.26096282525</v>
       </c>
       <c r="P3" t="n">
-        <v>35139.82353109887</v>
+        <v>1690.440770990897</v>
       </c>
       <c r="Q3" t="n">
-        <v>1690.440770990897</v>
+        <v>8392.482064571981</v>
       </c>
       <c r="R3" t="n">
-        <v>5511.485981514406</v>
+        <v>3565.633741138426</v>
       </c>
       <c r="S3" t="n">
-        <v>2238.681337601321</v>
+        <v>333.5567552679565</v>
       </c>
       <c r="T3" t="n">
-        <v>214.2489973357439</v>
+        <v>1342.845542749277</v>
       </c>
       <c r="U3" t="n">
-        <v>840.5826305662382</v>
+        <v>61.10957492731282</v>
       </c>
       <c r="V3" t="n">
-        <v>40.02188985175228</v>
+        <v>4908.481362357281</v>
       </c>
       <c r="W3" t="n">
-        <v>3079.263968167559</v>
+        <v>394.6697387503528</v>
       </c>
       <c r="X3" t="n">
-        <v>254.2708871874962</v>
+        <v>535.4881505135651</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.3264014831789</v>
+        <v>37.17434365302346</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.12555135755219</v>
+        <v>371.2745817785596</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.5781337760715</v>
+        <v>63.78991028596401</v>
       </c>
       <c r="AB3" t="n">
-        <v>41.33524022861447</v>
+        <v>52244.33121438583</v>
       </c>
       <c r="AC3" t="n">
-        <v>37278.73176481328</v>
+        <v>1741.475776568035</v>
       </c>
       <c r="AD3" t="n">
-        <v>1741.475776568035</v>
+        <v>10003.06817579025</v>
       </c>
       <c r="AE3" t="n">
-        <v>6918.282226475702</v>
+        <v>3917.099310137479</v>
       </c>
       <c r="AF3" t="n">
-        <v>2708.275818993478</v>
+        <v>362.0535048139315</v>
       </c>
       <c r="AG3" t="n">
-        <v>253.4574588476533</v>
+        <v>1001.060319475671</v>
       </c>
       <c r="AH3" t="n">
-        <v>697.6124669116859</v>
+        <v>51.73260886867263</v>
       </c>
       <c r="AI3" t="n">
-        <v>37.08361998645271</v>
+        <v>4918.158184459539</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3405.888285905164</v>
+        <v>413.7887431114607</v>
       </c>
       <c r="AK3" t="n">
-        <v>290.541078834106</v>
+        <v>619.0514115277839</v>
       </c>
       <c r="AL3" t="n">
-        <v>444.7572931794446</v>
+        <v>32.36892959554211</v>
       </c>
       <c r="AM3" t="n">
-        <v>23.50821093050978</v>
+        <v>449.5599613340905</v>
       </c>
       <c r="AN3" t="n">
-        <v>328.8671087604378</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>56.52843416597797</v>
+        <v>80.18628688272555</v>
       </c>
     </row>
     <row r="4">
@@ -940,85 +929,82 @@
         <v>158.0529298443516</v>
       </c>
       <c r="O4" t="n">
-        <v>376.4027078892219</v>
+        <v>52468.1008312803</v>
       </c>
       <c r="P4" t="n">
-        <v>35670.40120009604</v>
+        <v>1748.937103663767</v>
       </c>
       <c r="Q4" t="n">
-        <v>1748.937103663767</v>
+        <v>8435.89036116139</v>
       </c>
       <c r="R4" t="n">
-        <v>5243.529566463166</v>
+        <v>3445.604814766064</v>
       </c>
       <c r="S4" t="n">
-        <v>2044.955379152391</v>
+        <v>317.2502711229578</v>
       </c>
       <c r="T4" t="n">
-        <v>196.9924026273008</v>
+        <v>1295.277599453275</v>
       </c>
       <c r="U4" t="n">
-        <v>772.8018779050992</v>
+        <v>61.00829198487074</v>
       </c>
       <c r="V4" t="n">
-        <v>38.19431627864717</v>
+        <v>4740.885946693613</v>
       </c>
       <c r="W4" t="n">
-        <v>2817.75725705749</v>
+        <v>378.2578294271675</v>
       </c>
       <c r="X4" t="n">
-        <v>235.186718905948</v>
+        <v>558.3767565045579</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.251856386387</v>
+        <v>32.74016144971844</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.56326026971866</v>
+        <v>380.7622391160041</v>
       </c>
       <c r="AA4" t="n">
-        <v>260.2173766191106</v>
+        <v>62.20356578738005</v>
       </c>
       <c r="AB4" t="n">
-        <v>40.28671915993478</v>
+        <v>58679.88067799115</v>
       </c>
       <c r="AC4" t="n">
-        <v>34967.84365323477</v>
+        <v>1955.997191947915</v>
       </c>
       <c r="AD4" t="n">
-        <v>1955.997191947915</v>
+        <v>11684.65224626046</v>
       </c>
       <c r="AE4" t="n">
-        <v>6735.950429127836</v>
+        <v>4420.1795598556</v>
       </c>
       <c r="AF4" t="n">
-        <v>2512.264471963871</v>
+        <v>395.139601887775</v>
       </c>
       <c r="AG4" t="n">
-        <v>227.7493592698368</v>
+        <v>1140.832288423174</v>
       </c>
       <c r="AH4" t="n">
-        <v>654.4873509197188</v>
+        <v>58.62195928093797</v>
       </c>
       <c r="AI4" t="n">
-        <v>34.32881547899326</v>
+        <v>5561.012767820727</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3166.75182288359</v>
+        <v>453.7635192111555</v>
       </c>
       <c r="AK4" t="n">
-        <v>262.0781747488301</v>
+        <v>662.4653757508919</v>
       </c>
       <c r="AL4" t="n">
-        <v>396.2543559713862</v>
+        <v>33.09837680666457</v>
       </c>
       <c r="AM4" t="n">
-        <v>19.01366400801037</v>
+        <v>470.8990979682945</v>
       </c>
       <c r="AN4" t="n">
-        <v>284.1242905108756</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>47.46093844235369</v>
+        <v>84.84432587012782</v>
       </c>
     </row>
     <row r="5">
@@ -1067,85 +1053,82 @@
         <v>153.4798917708448</v>
       </c>
       <c r="O5" t="n">
-        <v>362.0987528956378</v>
+        <v>52913.06918096032</v>
       </c>
       <c r="P5" t="n">
-        <v>32647.87026909309</v>
+        <v>1763.767837903084</v>
       </c>
       <c r="Q5" t="n">
-        <v>1763.767837903084</v>
+        <v>9137.169682303062</v>
       </c>
       <c r="R5" t="n">
-        <v>5403.07065083388</v>
+        <v>3675.905493827429</v>
       </c>
       <c r="S5" t="n">
-        <v>2028.882743576388</v>
+        <v>335.2447795413398</v>
       </c>
       <c r="T5" t="n">
-        <v>188.9873199756406</v>
+        <v>1296.351904479895</v>
       </c>
       <c r="U5" t="n">
-        <v>713.0034047802379</v>
+        <v>65.48634681215827</v>
       </c>
       <c r="V5" t="n">
-        <v>36.12928511257346</v>
+        <v>4972.252489076311</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.886148356625</v>
+        <v>400.7350522828203</v>
       </c>
       <c r="X5" t="n">
-        <v>225.1166050882141</v>
+        <v>543.3731453866779</v>
       </c>
       <c r="Y5" t="n">
-        <v>325.3385808165229</v>
+        <v>32.09010226228673</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.66445279530906</v>
+        <v>383.1077487013835</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.8347715843163</v>
+        <v>67.03742840265816</v>
       </c>
       <c r="AB5" t="n">
-        <v>37.69567533837247</v>
+        <v>56521.06601122727</v>
       </c>
       <c r="AC5" t="n">
-        <v>36186.72569018874</v>
+        <v>1884.033887926297</v>
       </c>
       <c r="AD5" t="n">
-        <v>1884.033887926297</v>
+        <v>11284.58842930789</v>
       </c>
       <c r="AE5" t="n">
-        <v>7116.883714345494</v>
+        <v>4421.07054413812</v>
       </c>
       <c r="AF5" t="n">
-        <v>2726.646221664719</v>
+        <v>408.1850135823908</v>
       </c>
       <c r="AG5" t="n">
-        <v>253.1635916720752</v>
+        <v>1199.886002350037</v>
       </c>
       <c r="AH5" t="n">
-        <v>713.6647968605633</v>
+        <v>61.71921928749241</v>
       </c>
       <c r="AI5" t="n">
-        <v>37.89107176172122</v>
+        <v>5620.962228388975</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3440.311018525283</v>
+        <v>469.9003117328285</v>
       </c>
       <c r="AK5" t="n">
-        <v>291.0546634337964</v>
+        <v>639.7954832044115</v>
       </c>
       <c r="AL5" t="n">
-        <v>410.6698631995355</v>
+        <v>35.89450816464365</v>
       </c>
       <c r="AM5" t="n">
-        <v>20.4323344750366</v>
+        <v>460.615146013524</v>
       </c>
       <c r="AN5" t="n">
-        <v>300.0259382531694</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>50.74899268971261</v>
+        <v>84.42452501217366</v>
       </c>
     </row>
     <row r="6">
@@ -1194,85 +1177,82 @@
         <v>159.5491486031145</v>
       </c>
       <c r="O6" t="n">
-        <v>376.1916550107511</v>
+        <v>59132.39195637465</v>
       </c>
       <c r="P6" t="n">
-        <v>36974.38135238089</v>
+        <v>1971.081921566278</v>
       </c>
       <c r="Q6" t="n">
-        <v>1971.081921566278</v>
+        <v>10608.36755745037</v>
       </c>
       <c r="R6" t="n">
-        <v>6237.721800697452</v>
+        <v>4324.069060874308</v>
       </c>
       <c r="S6" t="n">
-        <v>2404.758738272372</v>
+        <v>392.7301489265768</v>
       </c>
       <c r="T6" t="n">
-        <v>225.6470418362181</v>
+        <v>1469.459573507262</v>
       </c>
       <c r="U6" t="n">
-        <v>783.1023279153544</v>
+        <v>73.09879102601614</v>
       </c>
       <c r="V6" t="n">
-        <v>42.10090083547875</v>
+        <v>5793.533069815428</v>
       </c>
       <c r="W6" t="n">
-        <v>3187.861066187726</v>
+        <v>465.8333373627646</v>
       </c>
       <c r="X6" t="n">
-        <v>267.7479426716968</v>
+        <v>631.2215044736273</v>
       </c>
       <c r="Y6" t="n">
-        <v>387.5376182218013</v>
+        <v>37.68394170845484</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.63332159269888</v>
+        <v>429.2054512193725</v>
       </c>
       <c r="AA6" t="n">
-        <v>272.0246582558757</v>
+        <v>68.97679882362684</v>
       </c>
       <c r="AB6" t="n">
-        <v>40.65699418550835</v>
+        <v>59094.44458134437</v>
       </c>
       <c r="AC6" t="n">
-        <v>34037.08639854103</v>
+        <v>1969.814407356367</v>
       </c>
       <c r="AD6" t="n">
-        <v>1969.814407356367</v>
+        <v>11532.21332841281</v>
       </c>
       <c r="AE6" t="n">
-        <v>6461.814865793849</v>
+        <v>4912.209111399293</v>
       </c>
       <c r="AF6" t="n">
-        <v>2682.693670934113</v>
+        <v>443.8757583536209</v>
       </c>
       <c r="AG6" t="n">
-        <v>245.1037549219388</v>
+        <v>1377.484650574251</v>
       </c>
       <c r="AH6" t="n">
-        <v>715.0841630708672</v>
+        <v>68.08464512398085</v>
       </c>
       <c r="AI6" t="n">
-        <v>37.05953411533455</v>
+        <v>6289.697689609075</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3397.777834004981</v>
+        <v>511.9611734339364</v>
       </c>
       <c r="AK6" t="n">
-        <v>282.1632890372734</v>
+        <v>688.5610215152693</v>
       </c>
       <c r="AL6" t="n">
-        <v>398.4998238482113</v>
+        <v>35.40361802585899</v>
       </c>
       <c r="AM6" t="n">
-        <v>20.63306160534848</v>
+        <v>461.066466229734</v>
       </c>
       <c r="AN6" t="n">
-        <v>271.3609392051098</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>48.55508678535421</v>
+        <v>86.53628437897078</v>
       </c>
     </row>
     <row r="7">
@@ -1321,85 +1301,82 @@
         <v>153.2322224035787</v>
       </c>
       <c r="O7" t="n">
-        <v>370.0525476543855</v>
+        <v>54299.34375041345</v>
       </c>
       <c r="P7" t="n">
-        <v>34048.34512309541</v>
+        <v>1809.977375102943</v>
       </c>
       <c r="Q7" t="n">
-        <v>1809.977375102943</v>
+        <v>9326.878354468867</v>
       </c>
       <c r="R7" t="n">
-        <v>5533.32353787244</v>
+        <v>3882.893276900848</v>
       </c>
       <c r="S7" t="n">
-        <v>2159.542732544159</v>
+        <v>366.0362645342652</v>
       </c>
       <c r="T7" t="n">
-        <v>205.3246991204325</v>
+        <v>1408.021702373414</v>
       </c>
       <c r="U7" t="n">
-        <v>724.6160456364601</v>
+        <v>68.79778671271062</v>
       </c>
       <c r="V7" t="n">
-        <v>38.30731764814891</v>
+        <v>5290.918372527961</v>
       </c>
       <c r="W7" t="n">
-        <v>2884.158778180619</v>
+        <v>434.8291708317948</v>
       </c>
       <c r="X7" t="n">
-        <v>243.6320167685814</v>
+        <v>575.1307474163546</v>
       </c>
       <c r="Y7" t="n">
-        <v>353.7184562348427</v>
+        <v>29.60597061985614</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.57795175567649</v>
+        <v>388.9719226807718</v>
       </c>
       <c r="AA7" t="n">
-        <v>244.2240809511906</v>
+        <v>60.3390516726086</v>
       </c>
       <c r="AB7" t="n">
-        <v>35.89492816239859</v>
+        <v>58626.90080452469</v>
       </c>
       <c r="AC7" t="n">
-        <v>39748.91055695822</v>
+        <v>1954.231772442519</v>
       </c>
       <c r="AD7" t="n">
-        <v>1954.231772442519</v>
+        <v>11603.87060698419</v>
       </c>
       <c r="AE7" t="n">
-        <v>7594.832236369612</v>
+        <v>4363.702447385951</v>
       </c>
       <c r="AF7" t="n">
-        <v>2812.131488379547</v>
+        <v>395.081616399608</v>
       </c>
       <c r="AG7" t="n">
-        <v>259.3236854680563</v>
+        <v>1084.30138718002</v>
       </c>
       <c r="AH7" t="n">
-        <v>711.5460650218032</v>
+        <v>56.65544552966021</v>
       </c>
       <c r="AI7" t="n">
-        <v>38.13584943155273</v>
+        <v>5448.009778025356</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3523.67755340135</v>
+        <v>451.7373093417706</v>
       </c>
       <c r="AK7" t="n">
-        <v>297.459534899609</v>
+        <v>646.9712062627783</v>
       </c>
       <c r="AL7" t="n">
-        <v>443.638665347588</v>
+        <v>31.19810317099417</v>
       </c>
       <c r="AM7" t="n">
-        <v>20.92133440938671</v>
+        <v>472.9489416860833</v>
       </c>
       <c r="AN7" t="n">
-        <v>330.0160218141575</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>53.17140072714147</v>
+        <v>83.67330081408558</v>
       </c>
     </row>
     <row r="8">
@@ -1448,85 +1425,82 @@
         <v>167.6166903710481</v>
       </c>
       <c r="O8" t="n">
-        <v>370.842183408181</v>
+        <v>52833.18456127348</v>
       </c>
       <c r="P8" t="n">
-        <v>38666.44617415352</v>
+        <v>1761.108252905832</v>
       </c>
       <c r="Q8" t="n">
-        <v>1761.108252905832</v>
+        <v>8560.954570438857</v>
       </c>
       <c r="R8" t="n">
-        <v>5907.780197285741</v>
+        <v>3836.385672264079</v>
       </c>
       <c r="S8" t="n">
-        <v>2453.299623878735</v>
+        <v>357.1805041123553</v>
       </c>
       <c r="T8" t="n">
-        <v>231.9725186381782</v>
+        <v>1353.458676874251</v>
       </c>
       <c r="U8" t="n">
-        <v>839.1770725630356</v>
+        <v>68.80571614964941</v>
       </c>
       <c r="V8" t="n">
-        <v>44.43655945661627</v>
+        <v>5189.844294358251</v>
       </c>
       <c r="W8" t="n">
-        <v>3292.476696441771</v>
+        <v>425.9884482442384</v>
       </c>
       <c r="X8" t="n">
-        <v>276.4090780947945</v>
+        <v>567.9114534708223</v>
       </c>
       <c r="Y8" t="n">
-        <v>403.1707345705044</v>
+        <v>34.72609913461507</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.22314552223716</v>
+        <v>384.6972805289806</v>
       </c>
       <c r="AA8" t="n">
-        <v>287.229812868405</v>
+        <v>66.61554384715153</v>
       </c>
       <c r="AB8" t="n">
-        <v>44.94408914964191</v>
+        <v>55023.09503453282</v>
       </c>
       <c r="AC8" t="n">
-        <v>36027.20407695029</v>
+        <v>1834.103387848691</v>
       </c>
       <c r="AD8" t="n">
-        <v>1834.103387848691</v>
+        <v>9772.504169982083</v>
       </c>
       <c r="AE8" t="n">
-        <v>6243.634696270775</v>
+        <v>3784.559186273965</v>
       </c>
       <c r="AF8" t="n">
-        <v>2353.072603634937</v>
+        <v>371.1686311022603</v>
       </c>
       <c r="AG8" t="n">
-        <v>231.5665083891014</v>
+        <v>1106.44896233858</v>
       </c>
       <c r="AH8" t="n">
-        <v>667.878425248301</v>
+        <v>57.07547391074591</v>
       </c>
       <c r="AI8" t="n">
-        <v>35.06300640891956</v>
+        <v>4891.004107750569</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3020.951028883238</v>
+        <v>428.2480858024354</v>
       </c>
       <c r="AK8" t="n">
-        <v>266.6295147980209</v>
+        <v>618.4441229092494</v>
       </c>
       <c r="AL8" t="n">
-        <v>413.1113148006331</v>
+        <v>32.87796286506993</v>
       </c>
       <c r="AM8" t="n">
-        <v>19.79208500210665</v>
+        <v>440.8590564639621</v>
       </c>
       <c r="AN8" t="n">
-        <v>297.0488495061834</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>50.37113890699165</v>
+        <v>81.44299249322971</v>
       </c>
     </row>
     <row r="9">
@@ -1575,85 +1549,82 @@
         <v>150.5370517495074</v>
       </c>
       <c r="O9" t="n">
-        <v>364.5436222581205</v>
+        <v>55011.53106500008</v>
       </c>
       <c r="P9" t="n">
-        <v>36440.72858284784</v>
+        <v>1833.717587287561</v>
       </c>
       <c r="Q9" t="n">
-        <v>1833.717587287561</v>
+        <v>9621.159994822008</v>
       </c>
       <c r="R9" t="n">
-        <v>5958.15467724795</v>
+        <v>3899.586585100133</v>
       </c>
       <c r="S9" t="n">
-        <v>2324.180100690997</v>
+        <v>347.7266516633255</v>
       </c>
       <c r="T9" t="n">
-        <v>213.7833744146907</v>
+        <v>1235.953924757431</v>
       </c>
       <c r="U9" t="n">
-        <v>759.8475574042693</v>
+        <v>61.75052689387589</v>
       </c>
       <c r="V9" t="n">
-        <v>39.15836666954452</v>
+        <v>5135.535018395605</v>
       </c>
       <c r="W9" t="n">
-        <v>3084.027658095266</v>
+        <v>409.4778696156156</v>
       </c>
       <c r="X9" t="n">
-        <v>252.9417410842352</v>
+        <v>571.1889366122608</v>
       </c>
       <c r="Y9" t="n">
-        <v>372.9624990529351</v>
+        <v>35.21169200596948</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.9772389903973</v>
+        <v>384.3013349239674</v>
       </c>
       <c r="AA9" t="n">
-        <v>258.6483012491335</v>
+        <v>59.67987073090132</v>
       </c>
       <c r="AB9" t="n">
-        <v>36.90503339355683</v>
+        <v>59176.0186532532</v>
       </c>
       <c r="AC9" t="n">
-        <v>32822.24989419879</v>
+        <v>1972.533069187244</v>
       </c>
       <c r="AD9" t="n">
-        <v>1972.533069187244</v>
+        <v>12347.55644990857</v>
       </c>
       <c r="AE9" t="n">
-        <v>6602.999732912004</v>
+        <v>5082.365254353446</v>
       </c>
       <c r="AF9" t="n">
-        <v>2669.182464448235</v>
+        <v>441.4543016949205</v>
       </c>
       <c r="AG9" t="n">
-        <v>235.132952968134</v>
+        <v>1320.359058667715</v>
       </c>
       <c r="AH9" t="n">
-        <v>710.5611556902799</v>
+        <v>66.10601975346664</v>
       </c>
       <c r="AI9" t="n">
-        <v>36.91028573641209</v>
+        <v>6402.726194053113</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3379.743620138515</v>
+        <v>507.5602672915062</v>
       </c>
       <c r="AK9" t="n">
-        <v>272.043238704546</v>
+        <v>650.8615619993373</v>
       </c>
       <c r="AL9" t="n">
-        <v>360.4221816733501</v>
+        <v>34.31590345411404</v>
       </c>
       <c r="AM9" t="n">
-        <v>19.16336104346119</v>
+        <v>442.2502548406653</v>
       </c>
       <c r="AN9" t="n">
-        <v>250.370317805314</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>44.42988666735041</v>
+        <v>82.75233642467937</v>
       </c>
     </row>
     <row r="10">
@@ -1702,85 +1673,82 @@
         <v>155.8692048149572</v>
       </c>
       <c r="O10" t="n">
-        <v>363.1279557792232</v>
+        <v>53006.54414896068</v>
       </c>
       <c r="P10" t="n">
-        <v>38255.64517666001</v>
+        <v>1766.883441174571</v>
       </c>
       <c r="Q10" t="n">
-        <v>1766.883441174571</v>
+        <v>8915.708031924929</v>
       </c>
       <c r="R10" t="n">
-        <v>6193.01590876589</v>
+        <v>3636.418423054762</v>
       </c>
       <c r="S10" t="n">
-        <v>2372.964735573008</v>
+        <v>340.0332039509289</v>
       </c>
       <c r="T10" t="n">
-        <v>224.3425409093067</v>
+        <v>1303.443844963777</v>
       </c>
       <c r="U10" t="n">
-        <v>827.9870874144821</v>
+        <v>62.40692805056255</v>
       </c>
       <c r="V10" t="n">
-        <v>41.58784447918433</v>
+        <v>4939.860893391595</v>
       </c>
       <c r="W10" t="n">
-        <v>3200.95182298749</v>
+        <v>402.4409809872747</v>
       </c>
       <c r="X10" t="n">
-        <v>265.930385388491</v>
+        <v>568.1893433640511</v>
       </c>
       <c r="Y10" t="n">
-        <v>400.3020953679732</v>
+        <v>38.92995911772954</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.38165588884013</v>
+        <v>400.6135554119994</v>
       </c>
       <c r="AA10" t="n">
-        <v>289.7676027772649</v>
+        <v>66.31351113141777</v>
       </c>
       <c r="AB10" t="n">
-        <v>44.89919475651774</v>
+        <v>54367.72053174261</v>
       </c>
       <c r="AC10" t="n">
-        <v>31960.22600064877</v>
+        <v>1812.256080771003</v>
       </c>
       <c r="AD10" t="n">
-        <v>1812.256080771003</v>
+        <v>10137.99446368499</v>
       </c>
       <c r="AE10" t="n">
-        <v>5857.257841365194</v>
+        <v>3895.274367431775</v>
       </c>
       <c r="AF10" t="n">
-        <v>2240.149115371444</v>
+        <v>359.8710171782913</v>
       </c>
       <c r="AG10" t="n">
-        <v>206.092053379901</v>
+        <v>1047.357208062897</v>
       </c>
       <c r="AH10" t="n">
-        <v>585.4340133463652</v>
+        <v>51.07540129988951</v>
       </c>
       <c r="AI10" t="n">
-        <v>29.93613709859859</v>
+        <v>4942.63165040428</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2825.583128717809</v>
+        <v>410.9474502902887</v>
       </c>
       <c r="AK10" t="n">
-        <v>236.0281904784996</v>
+        <v>613.4662666122452</v>
       </c>
       <c r="AL10" t="n">
-        <v>365.933849250119</v>
+        <v>34.15131030943493</v>
       </c>
       <c r="AM10" t="n">
-        <v>19.43182224566973</v>
+        <v>440.9389320231821</v>
       </c>
       <c r="AN10" t="n">
-        <v>265.413380104986</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>44.40391729390301</v>
+        <v>79.24270225011809</v>
       </c>
     </row>
     <row r="11">
@@ -1829,85 +1797,82 @@
         <v>159.0719190737565</v>
       </c>
       <c r="O11" t="n">
-        <v>360.1145346300518</v>
+        <v>52571.18898850332</v>
       </c>
       <c r="P11" t="n">
-        <v>34205.07958177093</v>
+        <v>1752.370680344522</v>
       </c>
       <c r="Q11" t="n">
-        <v>1752.370680344522</v>
+        <v>8790.549055765719</v>
       </c>
       <c r="R11" t="n">
-        <v>5453.99385887174</v>
+        <v>3513.610315264341</v>
       </c>
       <c r="S11" t="n">
-        <v>2133.668123212671</v>
+        <v>328.6623380538659</v>
       </c>
       <c r="T11" t="n">
-        <v>202.9644532584234</v>
+        <v>1264.449218438734</v>
       </c>
       <c r="U11" t="n">
-        <v>744.842622276547</v>
+        <v>60.93839846151732</v>
       </c>
       <c r="V11" t="n">
-        <v>37.46209824611816</v>
+        <v>4778.062774916076</v>
       </c>
       <c r="W11" t="n">
-        <v>2878.510745489218</v>
+        <v>389.6023425587008</v>
       </c>
       <c r="X11" t="n">
-        <v>240.4265515045415</v>
+        <v>546.9649452647665</v>
       </c>
       <c r="Y11" t="n">
-        <v>349.6933136790033</v>
+        <v>32.10410704911835</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.35895531075379</v>
+        <v>384.3526851485788</v>
       </c>
       <c r="AA11" t="n">
-        <v>252.169763229969</v>
+        <v>58.67473878883042</v>
       </c>
       <c r="AB11" t="n">
-        <v>36.17941948018166</v>
+        <v>57537.96443349453</v>
       </c>
       <c r="AC11" t="n">
-        <v>38494.82309156028</v>
+        <v>1917.931615868652</v>
       </c>
       <c r="AD11" t="n">
-        <v>1917.931615868652</v>
+        <v>11401.88230423811</v>
       </c>
       <c r="AE11" t="n">
-        <v>7360.582111863511</v>
+        <v>4513.326155798913</v>
       </c>
       <c r="AF11" t="n">
-        <v>2925.93209082244</v>
+        <v>417.1032152269784</v>
       </c>
       <c r="AG11" t="n">
-        <v>274.6926342690621</v>
+        <v>1197.293111347416</v>
       </c>
       <c r="AH11" t="n">
-        <v>792.0766859198609</v>
+        <v>60.94424544888012</v>
       </c>
       <c r="AI11" t="n">
-        <v>41.91618988838238</v>
+        <v>5710.619800400665</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3718.008776742302</v>
+        <v>478.0482608422749</v>
       </c>
       <c r="AK11" t="n">
-        <v>316.6088241574445</v>
+        <v>661.3659485807889</v>
       </c>
       <c r="AL11" t="n">
-        <v>446.6336069517446</v>
+        <v>33.4314526270099</v>
       </c>
       <c r="AM11" t="n">
-        <v>22.60223208019178</v>
+        <v>478.1959605412098</v>
       </c>
       <c r="AN11" t="n">
-        <v>329.091952054256</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>57.49436285072487</v>
+        <v>87.684840853145</v>
       </c>
     </row>
     <row r="12">
@@ -1956,85 +1921,82 @@
         <v>159.6530277808585</v>
       </c>
       <c r="O12" t="n">
-        <v>374.412778141813</v>
+        <v>53800.71486310174</v>
       </c>
       <c r="P12" t="n">
-        <v>32758.08195563007</v>
+        <v>1793.357040425116</v>
       </c>
       <c r="Q12" t="n">
-        <v>1793.357040425116</v>
+        <v>9006.101740023641</v>
       </c>
       <c r="R12" t="n">
-        <v>5238.694765575687</v>
+        <v>3678.187327216895</v>
       </c>
       <c r="S12" t="n">
-        <v>2086.253184673554</v>
+        <v>345.1510845343131</v>
       </c>
       <c r="T12" t="n">
-        <v>199.2119480330693</v>
+        <v>1450.906317302216</v>
       </c>
       <c r="U12" t="n">
-        <v>791.565795236153</v>
+        <v>66.04213326450075</v>
       </c>
       <c r="V12" t="n">
-        <v>38.89003550448751</v>
+        <v>5129.09418390951</v>
       </c>
       <c r="W12" t="n">
-        <v>2877.818979909707</v>
+        <v>411.1952480340385</v>
       </c>
       <c r="X12" t="n">
-        <v>238.1019835375568</v>
+        <v>585.0554244739951</v>
       </c>
       <c r="Y12" t="n">
-        <v>345.8938173378686</v>
+        <v>33.04448006467787</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.40748480673266</v>
+        <v>385.6429228289383</v>
       </c>
       <c r="AA12" t="n">
-        <v>237.5930698026506</v>
+        <v>62.85518377423379</v>
       </c>
       <c r="AB12" t="n">
-        <v>37.69317383878818</v>
+        <v>57969.7162767207</v>
       </c>
       <c r="AC12" t="n">
-        <v>38599.67811345107</v>
+        <v>1932.322711398921</v>
       </c>
       <c r="AD12" t="n">
-        <v>1932.322711398921</v>
+        <v>10604.26347201882</v>
       </c>
       <c r="AE12" t="n">
-        <v>6718.351363627067</v>
+        <v>3801.7552633623</v>
       </c>
       <c r="AF12" t="n">
-        <v>2380.928069859604</v>
+        <v>363.8466134399262</v>
       </c>
       <c r="AG12" t="n">
-        <v>233.8774139636755</v>
+        <v>1052.038259666661</v>
       </c>
       <c r="AH12" t="n">
-        <v>647.6339143920569</v>
+        <v>54.2872350726663</v>
       </c>
       <c r="AI12" t="n">
-        <v>34.44766538418413</v>
+        <v>4853.799763651276</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3028.561984251661</v>
+        <v>418.1332254364082</v>
       </c>
       <c r="AK12" t="n">
-        <v>268.3250793478596</v>
+        <v>647.4966723187583</v>
       </c>
       <c r="AL12" t="n">
-        <v>441.1664114612844</v>
+        <v>31.40066849276589</v>
       </c>
       <c r="AM12" t="n">
-        <v>20.96319904245146</v>
+        <v>476.4538897519524</v>
       </c>
       <c r="AN12" t="n">
-        <v>328.5689656180538</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>53.81616349185092</v>
+        <v>81.95096798700266</v>
       </c>
     </row>
     <row r="13">
@@ -2083,85 +2045,82 @@
         <v>167.7592050481605</v>
       </c>
       <c r="O13" t="n">
-        <v>380.2438218139744</v>
+        <v>55981.01400158471</v>
       </c>
       <c r="P13" t="n">
-        <v>34953.74543420662</v>
+        <v>1866.032217015614</v>
       </c>
       <c r="Q13" t="n">
-        <v>1866.032217015614</v>
+        <v>9458.90853970794</v>
       </c>
       <c r="R13" t="n">
-        <v>5656.712370198617</v>
+        <v>4048.835543160053</v>
       </c>
       <c r="S13" t="n">
-        <v>2394.085879409804</v>
+        <v>368.7175452416103</v>
       </c>
       <c r="T13" t="n">
-        <v>222.110488791928</v>
+        <v>1436.145023775367</v>
       </c>
       <c r="U13" t="n">
-        <v>856.2483521944293</v>
+        <v>69.91939299065005</v>
       </c>
       <c r="V13" t="n">
-        <v>43.45043130386292</v>
+        <v>5484.979061827175</v>
       </c>
       <c r="W13" t="n">
-        <v>3250.334231604233</v>
+        <v>438.6396912421316</v>
       </c>
       <c r="X13" t="n">
-        <v>265.5609200957909</v>
+        <v>602.7649209827296</v>
       </c>
       <c r="Y13" t="n">
-        <v>367.3673110889612</v>
+        <v>36.18535989360925</v>
       </c>
       <c r="Z13" t="n">
-        <v>22.13109474157912</v>
+        <v>415.1592853891084</v>
       </c>
       <c r="AA13" t="n">
-        <v>258.7621329727833</v>
+        <v>66.75575109732173</v>
       </c>
       <c r="AB13" t="n">
-        <v>40.62741098809929</v>
+        <v>57824.13333056846</v>
       </c>
       <c r="AC13" t="n">
-        <v>37707.68500705942</v>
+        <v>1927.470901623121</v>
       </c>
       <c r="AD13" t="n">
-        <v>1927.470901623121</v>
+        <v>11149.92718981723</v>
       </c>
       <c r="AE13" t="n">
-        <v>7011.104832049384</v>
+        <v>4354.827639664401</v>
       </c>
       <c r="AF13" t="n">
-        <v>2696.729128388443</v>
+        <v>392.9549354701722</v>
       </c>
       <c r="AG13" t="n">
-        <v>251.0553186819429</v>
+        <v>1142.723772700204</v>
       </c>
       <c r="AH13" t="n">
-        <v>725.6114142936802</v>
+        <v>58.07616411593687</v>
       </c>
       <c r="AI13" t="n">
-        <v>39.06582525829596</v>
+        <v>5497.546662780515</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3422.340542682123</v>
+        <v>451.0305983628874</v>
       </c>
       <c r="AK13" t="n">
-        <v>290.1211439402388</v>
+        <v>657.8991961260289</v>
       </c>
       <c r="AL13" t="n">
-        <v>431.0926321078739</v>
+        <v>31.93319248186292</v>
       </c>
       <c r="AM13" t="n">
-        <v>21.21677259777582</v>
+        <v>463.4379098973515</v>
       </c>
       <c r="AN13" t="n">
-        <v>307.5498847283098</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>53.45620293251407</v>
+        <v>81.15621071236731</v>
       </c>
     </row>
     <row r="14">
@@ -2210,85 +2169,82 @@
         <v>150.7021394029028</v>
       </c>
       <c r="O14" t="n">
-        <v>375.0029001234141</v>
+        <v>53017.08894474142</v>
       </c>
       <c r="P14" t="n">
-        <v>32963.50632179116</v>
+        <v>1767.23706594256</v>
       </c>
       <c r="Q14" t="n">
-        <v>1767.23706594256</v>
+        <v>8178.064749029167</v>
       </c>
       <c r="R14" t="n">
-        <v>4769.842932808218</v>
+        <v>3403.096549594182</v>
       </c>
       <c r="S14" t="n">
-        <v>1895.187098614456</v>
+        <v>328.1660974364638</v>
       </c>
       <c r="T14" t="n">
-        <v>184.84857931165</v>
+        <v>1291.573341399646</v>
       </c>
       <c r="U14" t="n">
-        <v>679.4621046825976</v>
+        <v>58.59633004902819</v>
       </c>
       <c r="V14" t="n">
-        <v>32.77406582441426</v>
+        <v>4694.668402067732</v>
       </c>
       <c r="W14" t="n">
-        <v>2574.649203297054</v>
+        <v>386.7639169234935</v>
       </c>
       <c r="X14" t="n">
-        <v>217.6226451360643</v>
+        <v>551.9210121215297</v>
       </c>
       <c r="Y14" t="n">
-        <v>333.4816257848676</v>
+        <v>33.02074812048518</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.66103671024132</v>
+        <v>381.6369134761939</v>
       </c>
       <c r="AA14" t="n">
-        <v>237.581875238145</v>
+        <v>60.61729419979687</v>
       </c>
       <c r="AB14" t="n">
-        <v>35.65024436258229</v>
+        <v>57148.57552113715</v>
       </c>
       <c r="AC14" t="n">
-        <v>37916.45322392388</v>
+        <v>1904.955064933057</v>
       </c>
       <c r="AD14" t="n">
-        <v>1904.955064933057</v>
+        <v>10261.49400443823</v>
       </c>
       <c r="AE14" t="n">
-        <v>6502.18421103032</v>
+        <v>3632.33536636035</v>
       </c>
       <c r="AF14" t="n">
-        <v>2245.90156479402</v>
+        <v>349.5120651250113</v>
       </c>
       <c r="AG14" t="n">
-        <v>218.1427384878003</v>
+        <v>932.797125923501</v>
       </c>
       <c r="AH14" t="n">
-        <v>557.7131031458366</v>
+        <v>47.89076332656309</v>
       </c>
       <c r="AI14" t="n">
-        <v>29.90705738630099</v>
+        <v>4565.133483531136</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2803.614667939856</v>
+        <v>397.4001201651793</v>
       </c>
       <c r="AK14" t="n">
-        <v>248.0497958741013</v>
+        <v>609.886433421629</v>
       </c>
       <c r="AL14" t="n">
-        <v>409.2760007511265</v>
+        <v>30.77362124776425</v>
       </c>
       <c r="AM14" t="n">
-        <v>19.85950173582542</v>
+        <v>447.3648450723896</v>
       </c>
       <c r="AN14" t="n">
-        <v>304.509415916294</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>50.69267749269447</v>
+        <v>80.6685284137416</v>
       </c>
     </row>
     <row r="15">
@@ -2337,85 +2293,82 @@
         <v>154.3365670962022</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5691534415949</v>
+        <v>54917.48096608371</v>
       </c>
       <c r="P15" t="n">
-        <v>32220.02150676567</v>
+        <v>1830.580065384755</v>
       </c>
       <c r="Q15" t="n">
-        <v>1830.580065384755</v>
+        <v>9389.411022722685</v>
       </c>
       <c r="R15" t="n">
-        <v>5301.239069384605</v>
+        <v>4006.44188896515</v>
       </c>
       <c r="S15" t="n">
-        <v>2132.011747436541</v>
+        <v>361.9385921760291</v>
       </c>
       <c r="T15" t="n">
-        <v>198.2071088969121</v>
+        <v>1342.739855592855</v>
       </c>
       <c r="U15" t="n">
-        <v>695.8568040917461</v>
+        <v>64.36643147931923</v>
       </c>
       <c r="V15" t="n">
-        <v>35.4765987436576</v>
+        <v>5349.184125240512</v>
       </c>
       <c r="W15" t="n">
-        <v>2827.868551528287</v>
+        <v>426.3063123873772</v>
       </c>
       <c r="X15" t="n">
-        <v>233.6837076405697</v>
+        <v>578.7258595843832</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.9844681024867</v>
+        <v>36.50366769813903</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.6634454395392</v>
+        <v>401.0769102653761</v>
       </c>
       <c r="AA15" t="n">
-        <v>241.4789991936919</v>
+        <v>65.87668573993089</v>
       </c>
       <c r="AB15" t="n">
-        <v>36.72691545228616</v>
+        <v>59093.64977897883</v>
       </c>
       <c r="AC15" t="n">
-        <v>38633.96516341814</v>
+        <v>1969.789367164996</v>
       </c>
       <c r="AD15" t="n">
-        <v>1969.789367164996</v>
+        <v>11019.15613225227</v>
       </c>
       <c r="AE15" t="n">
-        <v>6997.280355470257</v>
+        <v>4433.554146542531</v>
       </c>
       <c r="AF15" t="n">
-        <v>2697.922713108198</v>
+        <v>402.3932064729488</v>
       </c>
       <c r="AG15" t="n">
-        <v>250.4019201540983</v>
+        <v>1216.455361021674</v>
       </c>
       <c r="AH15" t="n">
-        <v>733.9124385027154</v>
+        <v>59.80880052742775</v>
       </c>
       <c r="AI15" t="n">
-        <v>37.36432920592028</v>
+        <v>5650.007896424827</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3431.835151610913</v>
+        <v>462.2028192065762</v>
       </c>
       <c r="AK15" t="n">
-        <v>287.7662493600186</v>
+        <v>655.5319646412614</v>
       </c>
       <c r="AL15" t="n">
-        <v>425.14171812629</v>
+        <v>34.03749461872818</v>
       </c>
       <c r="AM15" t="n">
-        <v>20.73584994464252</v>
+        <v>463.9336430996958</v>
       </c>
       <c r="AN15" t="n">
-        <v>313.5033248193728</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>49.95718077567489</v>
+        <v>80.1484471848423</v>
       </c>
     </row>
     <row r="16">
@@ -2464,85 +2417,82 @@
         <v>148.051048681639</v>
       </c>
       <c r="O16" t="n">
-        <v>366.3919606058261</v>
+        <v>54025.55129857896</v>
       </c>
       <c r="P16" t="n">
-        <v>30965.54675942479</v>
+        <v>1800.850341017</v>
       </c>
       <c r="Q16" t="n">
-        <v>1800.850341017</v>
+        <v>9045.572851019573</v>
       </c>
       <c r="R16" t="n">
-        <v>4916.24135140615</v>
+        <v>3812.701240926597</v>
       </c>
       <c r="S16" t="n">
-        <v>1966.027655306044</v>
+        <v>353.1381963857053</v>
       </c>
       <c r="T16" t="n">
-        <v>183.1214673779982</v>
+        <v>1463.199180426487</v>
       </c>
       <c r="U16" t="n">
-        <v>677.8628917114975</v>
+        <v>67.05610639758795</v>
       </c>
       <c r="V16" t="n">
-        <v>33.30107361485849</v>
+        <v>5275.89990422667</v>
       </c>
       <c r="W16" t="n">
-        <v>2643.890547017541</v>
+        <v>420.1956488513096</v>
       </c>
       <c r="X16" t="n">
-        <v>216.4225409928567</v>
+        <v>571.5950937691449</v>
       </c>
       <c r="Y16" t="n">
-        <v>323.6035574796436</v>
+        <v>33.535331283396</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.61052936080061</v>
+        <v>381.6327613908686</v>
       </c>
       <c r="AA16" t="n">
-        <v>223.6140481905484</v>
+        <v>66.29553817821896</v>
       </c>
       <c r="AB16" t="n">
-        <v>33.918905803945</v>
+        <v>56712.2621691625</v>
       </c>
       <c r="AC16" t="n">
-        <v>38398.02693295938</v>
+        <v>1890.408695170702</v>
       </c>
       <c r="AD16" t="n">
-        <v>1890.408695170702</v>
+        <v>10581.9287623603</v>
       </c>
       <c r="AE16" t="n">
-        <v>7041.233320611997</v>
+        <v>4063.558894093866</v>
       </c>
       <c r="AF16" t="n">
-        <v>2613.129243165958</v>
+        <v>374.2528043654847</v>
       </c>
       <c r="AG16" t="n">
-        <v>240.5277961084957</v>
+        <v>1142.593716898277</v>
       </c>
       <c r="AH16" t="n">
-        <v>698.5232165099505</v>
+        <v>56.51548029890247</v>
       </c>
       <c r="AI16" t="n">
-        <v>34.20702297399577</v>
+        <v>5206.15462167688</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3311.652459675908</v>
+        <v>430.7710418334358</v>
       </c>
       <c r="AK16" t="n">
-        <v>274.7348190824914</v>
+        <v>632.0352623406797</v>
       </c>
       <c r="AL16" t="n">
-        <v>432.9397177833973</v>
+        <v>30.35336835960021</v>
       </c>
       <c r="AM16" t="n">
-        <v>19.23656628065979</v>
+        <v>462.5057531507132</v>
       </c>
       <c r="AN16" t="n">
-        <v>318.9259233922268</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>48.19573460368308</v>
+        <v>77.06911093578003</v>
       </c>
     </row>
     <row r="17">
@@ -2591,85 +2541,82 @@
         <v>162.9861878337547</v>
       </c>
       <c r="O17" t="n">
-        <v>371.2623989490295</v>
+        <v>55273.69809275019</v>
       </c>
       <c r="P17" t="n">
-        <v>32092.43569744579</v>
+        <v>1842.455613025959</v>
       </c>
       <c r="Q17" t="n">
-        <v>1842.455613025959</v>
+        <v>9521.825423764943</v>
       </c>
       <c r="R17" t="n">
-        <v>5183.70059725008</v>
+        <v>3945.32680321742</v>
       </c>
       <c r="S17" t="n">
-        <v>2048.634412762716</v>
+        <v>362.1351607036838</v>
       </c>
       <c r="T17" t="n">
-        <v>193.8997873659992</v>
+        <v>1362.3658284774</v>
       </c>
       <c r="U17" t="n">
-        <v>705.9473503914388</v>
+        <v>66.92358750565259</v>
       </c>
       <c r="V17" t="n">
-        <v>36.12607865931245</v>
+        <v>5307.692239523972</v>
       </c>
       <c r="W17" t="n">
-        <v>2754.581763154155</v>
+        <v>429.059269367498</v>
       </c>
       <c r="X17" t="n">
-        <v>230.0258660253117</v>
+        <v>591.7720813932374</v>
       </c>
       <c r="Y17" t="n">
-        <v>334.2046841778367</v>
+        <v>30.37998884357073</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.21672867397698</v>
+        <v>391.022332271395</v>
       </c>
       <c r="AA17" t="n">
-        <v>228.8672944249722</v>
+        <v>62.96729723767268</v>
       </c>
       <c r="AB17" t="n">
-        <v>34.66413181414439</v>
+        <v>59104.83776859686</v>
       </c>
       <c r="AC17" t="n">
-        <v>40525.21044240975</v>
+        <v>1970.158275158401</v>
       </c>
       <c r="AD17" t="n">
-        <v>1970.158275158401</v>
+        <v>11906.87128503337</v>
       </c>
       <c r="AE17" t="n">
-        <v>7900.865829780558</v>
+        <v>4599.451184111439</v>
       </c>
       <c r="AF17" t="n">
-        <v>3001.926673098896</v>
+        <v>414.3280704283481</v>
       </c>
       <c r="AG17" t="n">
-        <v>271.3109752725626</v>
+        <v>1248.195776733533</v>
       </c>
       <c r="AH17" t="n">
-        <v>806.4426957447115</v>
+        <v>62.47130418471497</v>
       </c>
       <c r="AI17" t="n">
-        <v>41.23337589593452</v>
+        <v>5847.64874195623</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3808.369368843608</v>
+        <v>476.8003541193075</v>
       </c>
       <c r="AK17" t="n">
-        <v>312.5443511684971</v>
+        <v>639.4631367140621</v>
       </c>
       <c r="AL17" t="n">
-        <v>444.2224908853827</v>
+        <v>28.77514764087189</v>
       </c>
       <c r="AM17" t="n">
-        <v>19.77996690059289</v>
+        <v>475.9264874911692</v>
       </c>
       <c r="AN17" t="n">
-        <v>333.5524342211514</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>58.48504078741644</v>
+        <v>88.27799694407838</v>
       </c>
     </row>
     <row r="18">
@@ -2718,85 +2665,82 @@
         <v>181.455571001534</v>
       </c>
       <c r="O18" t="n">
-        <v>375.0667245003939</v>
+        <v>55636.17004023682</v>
       </c>
       <c r="P18" t="n">
-        <v>32706.80719737224</v>
+        <v>1854.540548606246</v>
       </c>
       <c r="Q18" t="n">
-        <v>1854.540548606246</v>
+        <v>9766.421718177025</v>
       </c>
       <c r="R18" t="n">
-        <v>5486.705109831577</v>
+        <v>3964.123742165036</v>
       </c>
       <c r="S18" t="n">
-        <v>2073.734208818265</v>
+        <v>380.2454454475458</v>
       </c>
       <c r="T18" t="n">
-        <v>203.242568382218</v>
+        <v>1267.033386443524</v>
       </c>
       <c r="U18" t="n">
-        <v>621.2318161859457</v>
+        <v>68.17731951835812</v>
       </c>
       <c r="V18" t="n">
-        <v>35.01734905756427</v>
+        <v>5231.158895762504</v>
       </c>
       <c r="W18" t="n">
-        <v>2694.96602500421</v>
+        <v>448.4269310193923</v>
       </c>
       <c r="X18" t="n">
-        <v>238.2599174397823</v>
+        <v>601.867264558053</v>
       </c>
       <c r="Y18" t="n">
-        <v>341.7040212931961</v>
+        <v>38.49379640264249</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.8393154251435</v>
+        <v>403.2357121134378</v>
       </c>
       <c r="AA18" t="n">
-        <v>237.7130449073506</v>
+        <v>68.60638179024971</v>
       </c>
       <c r="AB18" t="n">
-        <v>38.00438393296406</v>
+        <v>64417.41397565099</v>
       </c>
       <c r="AC18" t="n">
-        <v>41842.81071672353</v>
+        <v>2147.247733113258</v>
       </c>
       <c r="AD18" t="n">
-        <v>2147.247733113258</v>
+        <v>14307.06791398785</v>
       </c>
       <c r="AE18" t="n">
-        <v>9202.918048062398</v>
+        <v>6233.828963344316</v>
       </c>
       <c r="AF18" t="n">
-        <v>3992.576644895034</v>
+        <v>551.9703960498231</v>
       </c>
       <c r="AG18" t="n">
-        <v>352.9747693873791</v>
+        <v>1765.516880366264</v>
       </c>
       <c r="AH18" t="n">
-        <v>1100.605823962163</v>
+        <v>92.5081894021199</v>
       </c>
       <c r="AI18" t="n">
-        <v>60.41563664314325</v>
+        <v>7999.348330842308</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5093.182468857197</v>
+        <v>644.4814924668887</v>
       </c>
       <c r="AK18" t="n">
-        <v>413.3904060305224</v>
+        <v>709.7213410069689</v>
       </c>
       <c r="AL18" t="n">
-        <v>467.8653562805059</v>
+        <v>35.7191701781029</v>
       </c>
       <c r="AM18" t="n">
-        <v>22.64911874439506</v>
+        <v>495.7734142246817</v>
       </c>
       <c r="AN18" t="n">
-        <v>325.7334128163661</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>67.31286071329997</v>
+        <v>105.264748611868</v>
       </c>
     </row>
     <row r="19">
@@ -2845,85 +2789,82 @@
         <v>157.531238573527</v>
       </c>
       <c r="O19" t="n">
-        <v>388.213201223119</v>
+        <v>56585.22942034165</v>
       </c>
       <c r="P19" t="n">
-        <v>34994.11276809201</v>
+        <v>1886.173303597148</v>
       </c>
       <c r="Q19" t="n">
-        <v>1886.173303597148</v>
+        <v>9804.801738754386</v>
       </c>
       <c r="R19" t="n">
-        <v>5831.629067891557</v>
+        <v>4043.121701987329</v>
       </c>
       <c r="S19" t="n">
-        <v>2289.377205619548</v>
+        <v>382.2335021919338</v>
       </c>
       <c r="T19" t="n">
-        <v>219.4289286512258</v>
+        <v>1480.447300124172</v>
       </c>
       <c r="U19" t="n">
-        <v>815.779541114235</v>
+        <v>72.06555706208363</v>
       </c>
       <c r="V19" t="n">
-        <v>42.00194898887105</v>
+        <v>5523.57383783259</v>
       </c>
       <c r="W19" t="n">
-        <v>3105.156746733783</v>
+        <v>454.2969042564966</v>
       </c>
       <c r="X19" t="n">
-        <v>261.4308776400969</v>
+        <v>600.8571650807095</v>
       </c>
       <c r="Y19" t="n">
-        <v>364.9969406796904</v>
+        <v>37.64046296831578</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.33109916375548</v>
+        <v>404.2190927747566</v>
       </c>
       <c r="AA19" t="n">
-        <v>251.4333672983258</v>
+        <v>64.6775264630465</v>
       </c>
       <c r="AB19" t="n">
-        <v>38.02113080195703</v>
+        <v>58695.23608181359</v>
       </c>
       <c r="AC19" t="n">
-        <v>35593.54238090029</v>
+        <v>1956.507447167411</v>
       </c>
       <c r="AD19" t="n">
-        <v>1956.507447167411</v>
+        <v>11318.68278589666</v>
       </c>
       <c r="AE19" t="n">
-        <v>6581.101173174808</v>
+        <v>4562.869575030289</v>
       </c>
       <c r="AF19" t="n">
-        <v>2583.964680104031</v>
+        <v>427.7172092617284</v>
       </c>
       <c r="AG19" t="n">
-        <v>247.1156971093195</v>
+        <v>1361.254851691805</v>
       </c>
       <c r="AH19" t="n">
-        <v>746.6306666501458</v>
+        <v>66.89157691534719</v>
       </c>
       <c r="AI19" t="n">
-        <v>39.28784236278945</v>
+        <v>5924.1292849352</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3330.595346754177</v>
+        <v>494.6151722616034</v>
       </c>
       <c r="AK19" t="n">
-        <v>286.4035394721089</v>
+        <v>675.6598107739352</v>
       </c>
       <c r="AL19" t="n">
-        <v>411.6386442342052</v>
+        <v>37.82966405137105</v>
       </c>
       <c r="AM19" t="n">
-        <v>20.93217797149137</v>
+        <v>466.3938183623546</v>
       </c>
       <c r="AN19" t="n">
-        <v>290.2335250147322</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>49.70419316230832</v>
+        <v>85.62887294569278</v>
       </c>
     </row>
     <row r="20">
@@ -2972,85 +2913,82 @@
         <v>147.8640466580171</v>
       </c>
       <c r="O20" t="n">
-        <v>371.5753075053512</v>
+        <v>55257.05411280468</v>
       </c>
       <c r="P20" t="n">
-        <v>33635.70042211857</v>
+        <v>1841.903180168291</v>
       </c>
       <c r="Q20" t="n">
-        <v>1841.903180168291</v>
+        <v>9202.133283517593</v>
       </c>
       <c r="R20" t="n">
-        <v>5305.916087443142</v>
+        <v>3720.068112149491</v>
       </c>
       <c r="S20" t="n">
-        <v>2031.035600461399</v>
+        <v>341.5921506949824</v>
       </c>
       <c r="T20" t="n">
-        <v>191.4129089669059</v>
+        <v>1223.825851906536</v>
       </c>
       <c r="U20" t="n">
-        <v>655.4278370891473</v>
+        <v>61.01787239181806</v>
       </c>
       <c r="V20" t="n">
-        <v>33.78516259738231</v>
+        <v>4943.89391804456</v>
       </c>
       <c r="W20" t="n">
-        <v>2686.463437550546</v>
+        <v>402.6128666035963</v>
       </c>
       <c r="X20" t="n">
-        <v>225.1980715642882</v>
+        <v>592.9014037799554</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.8949109155481</v>
+        <v>33.14009703136928</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.95430460545614</v>
+        <v>404.6693840023888</v>
       </c>
       <c r="AA20" t="n">
-        <v>248.556750185756</v>
+        <v>65.99920496791056</v>
       </c>
       <c r="AB20" t="n">
-        <v>36.54961972291465</v>
+        <v>56639.62488095021</v>
       </c>
       <c r="AC20" t="n">
-        <v>38194.24051650666</v>
+        <v>1887.986747529322</v>
       </c>
       <c r="AD20" t="n">
-        <v>1887.986747529322</v>
+        <v>10368.76847767682</v>
       </c>
       <c r="AE20" t="n">
-        <v>6792.473984308117</v>
+        <v>3832.059971094797</v>
       </c>
       <c r="AF20" t="n">
-        <v>2444.004356279804</v>
+        <v>358.2674875602977</v>
       </c>
       <c r="AG20" t="n">
-        <v>232.3109276618534</v>
+        <v>1009.596518004158</v>
       </c>
       <c r="AH20" t="n">
-        <v>640.7241277567756</v>
+        <v>51.74961927148284</v>
       </c>
       <c r="AI20" t="n">
-        <v>33.65720504742838</v>
+        <v>4841.656763094874</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3084.728484036579</v>
+        <v>410.0204843390224</v>
       </c>
       <c r="AK20" t="n">
-        <v>265.9681327092818</v>
+        <v>611.702474896088</v>
       </c>
       <c r="AL20" t="n">
-        <v>421.0167316122428</v>
+        <v>31.96718672020177</v>
       </c>
       <c r="AM20" t="n">
-        <v>20.40228236563006</v>
+        <v>447.8644634205946</v>
       </c>
       <c r="AN20" t="n">
-        <v>312.3413544941554</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>48.51663485661462</v>
+        <v>76.41750006721263</v>
       </c>
     </row>
     <row r="21">
@@ -3099,85 +3037,82 @@
         <v>150.3256747742512</v>
       </c>
       <c r="O21" t="n">
-        <v>361.1376878284331</v>
+        <v>53554.03267756582</v>
       </c>
       <c r="P21" t="n">
-        <v>34289.36642145396</v>
+        <v>1785.135697777305</v>
       </c>
       <c r="Q21" t="n">
-        <v>1785.135697777305</v>
+        <v>9032.139282686025</v>
       </c>
       <c r="R21" t="n">
-        <v>5425.660954276913</v>
+        <v>3631.801233915262</v>
       </c>
       <c r="S21" t="n">
-        <v>2109.576997424297</v>
+        <v>331.7265387499533</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5925635397815</v>
+        <v>1246.749025321255</v>
       </c>
       <c r="U21" t="n">
-        <v>737.2301563109829</v>
+        <v>62.42224166846677</v>
       </c>
       <c r="V21" t="n">
-        <v>37.39092385780267</v>
+        <v>4878.54936947695</v>
       </c>
       <c r="W21" t="n">
-        <v>2846.80715373528</v>
+        <v>394.1529819976842</v>
       </c>
       <c r="X21" t="n">
-        <v>234.9834873975841</v>
+        <v>562.1995344326267</v>
       </c>
       <c r="Y21" t="n">
-        <v>353.6356650982439</v>
+        <v>31.91521285252782</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.43139192956996</v>
+        <v>388.3593619598912</v>
       </c>
       <c r="AA21" t="n">
-        <v>250.3691403750342</v>
+        <v>59.46968455068555</v>
       </c>
       <c r="AB21" t="n">
-        <v>36.53557994697282</v>
+        <v>57691.62006963032</v>
       </c>
       <c r="AC21" t="n">
-        <v>41663.34866694458</v>
+        <v>1923.054261902613</v>
       </c>
       <c r="AD21" t="n">
-        <v>1923.054261902613</v>
+        <v>11294.13504407824</v>
       </c>
       <c r="AE21" t="n">
-        <v>7949.114128038998</v>
+        <v>4402.712947164734</v>
       </c>
       <c r="AF21" t="n">
-        <v>2965.687650254197</v>
+        <v>398.5889533699398</v>
       </c>
       <c r="AG21" t="n">
-        <v>277.0982982233472</v>
+        <v>1148.019360387078</v>
       </c>
       <c r="AH21" t="n">
-        <v>781.4176108836199</v>
+        <v>57.39265964069966</v>
       </c>
       <c r="AI21" t="n">
-        <v>41.08631266665343</v>
+        <v>5550.729983463915</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3747.105261137817</v>
+        <v>455.9831126922674</v>
       </c>
       <c r="AK21" t="n">
-        <v>318.1846108900007</v>
+        <v>628.1666006490148</v>
       </c>
       <c r="AL21" t="n">
-        <v>462.5051145262245</v>
+        <v>29.26318593532021</v>
       </c>
       <c r="AM21" t="n">
-        <v>20.58648107071341</v>
+        <v>472.0254956709348</v>
       </c>
       <c r="AN21" t="n">
-        <v>352.7150321250502</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>54.79992878442881</v>
+        <v>78.98744389586922</v>
       </c>
     </row>
   </sheetData>
